--- a/avax_data.xlsx
+++ b/avax_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E367"/>
+  <dimension ref="A1:F367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6169 +463,7270 @@
           <t>volatility</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>market_cap_pct_change</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="B2" t="n">
-        <v>27.87886145809737</v>
+        <v>27.25116364726154</v>
       </c>
       <c r="C2" t="n">
-        <v>439043751.8684387</v>
+        <v>365922640.6116418</v>
       </c>
       <c r="D2" t="n">
-        <v>7904215936.290524</v>
+        <v>7763571236.742562</v>
       </c>
       <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="B3" t="n">
-        <v>27.25116364726154</v>
+        <v>25.53001019077372</v>
       </c>
       <c r="C3" t="n">
-        <v>365922640.6116418</v>
+        <v>426061889.3310658</v>
       </c>
       <c r="D3" t="n">
-        <v>7763571236.742562</v>
+        <v>7283665568.830951</v>
       </c>
       <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>-6.181506593774366</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="B4" t="n">
-        <v>25.53001019077372</v>
+        <v>24.29901185731302</v>
       </c>
       <c r="C4" t="n">
-        <v>426061889.3310658</v>
+        <v>317388044.8105291</v>
       </c>
       <c r="D4" t="n">
-        <v>7283665568.830951</v>
+        <v>6932923663.008156</v>
       </c>
       <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>-4.815458679538054</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44792</v>
+        <v>44793</v>
       </c>
       <c r="B5" t="n">
-        <v>24.29901185731302</v>
+        <v>22.5354680271282</v>
       </c>
       <c r="C5" t="n">
-        <v>317388044.8105291</v>
+        <v>639401542.8928515</v>
       </c>
       <c r="D5" t="n">
-        <v>6932923663.008156</v>
+        <v>6421004803.2693</v>
       </c>
       <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>-7.383881384275015</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44793</v>
+        <v>44794</v>
       </c>
       <c r="B6" t="n">
-        <v>22.5354680271282</v>
+        <v>22.27653220490593</v>
       </c>
       <c r="C6" t="n">
-        <v>639401542.8928515</v>
+        <v>437765428.4862376</v>
       </c>
       <c r="D6" t="n">
-        <v>6421004803.2693</v>
+        <v>6331474156.141907</v>
       </c>
       <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>-1.394340136325822</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44794</v>
+        <v>44795</v>
       </c>
       <c r="B7" t="n">
-        <v>22.27653220490593</v>
+        <v>23.06391275013318</v>
       </c>
       <c r="C7" t="n">
-        <v>437765428.4862376</v>
+        <v>330941210.3443605</v>
       </c>
       <c r="D7" t="n">
-        <v>6331474156.141907</v>
+        <v>6580655826.423256</v>
       </c>
       <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>3.935602738575938</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44795</v>
+        <v>44796</v>
       </c>
       <c r="B8" t="n">
-        <v>23.06391275013318</v>
+        <v>22.57858694621024</v>
       </c>
       <c r="C8" t="n">
-        <v>330941210.3443605</v>
+        <v>479782392.0222829</v>
       </c>
       <c r="D8" t="n">
-        <v>6580655826.423256</v>
+        <v>6414941474.891309</v>
       </c>
       <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>-2.518204201875374</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="B9" t="n">
-        <v>22.57858694621024</v>
+        <v>23.56915784130081</v>
       </c>
       <c r="C9" t="n">
-        <v>479782392.0222829</v>
+        <v>426565608.0724907</v>
       </c>
       <c r="D9" t="n">
-        <v>6414941474.891309</v>
+        <v>6718039692.225762</v>
       </c>
       <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>4.72487891777047</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="B10" t="n">
-        <v>23.56915784130081</v>
+        <v>23.03700109577623</v>
       </c>
       <c r="C10" t="n">
-        <v>426565608.0724907</v>
+        <v>307991781.6216049</v>
       </c>
       <c r="D10" t="n">
-        <v>6718039692.225762</v>
+        <v>6561248638.738084</v>
       </c>
       <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>-2.333881022898987</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="B11" t="n">
-        <v>23.03700109577623</v>
+        <v>23.07355204109706</v>
       </c>
       <c r="C11" t="n">
-        <v>307991781.6216049</v>
+        <v>270827288.6344872</v>
       </c>
       <c r="D11" t="n">
-        <v>6561248638.738084</v>
+        <v>6585353998.737029</v>
       </c>
       <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>0.3673898266349118</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44799</v>
+        <v>44800</v>
       </c>
       <c r="B12" t="n">
-        <v>23.07355204109706</v>
+        <v>20.62468377710467</v>
       </c>
       <c r="C12" t="n">
-        <v>270827288.6344872</v>
+        <v>415680010.4343049</v>
       </c>
       <c r="D12" t="n">
-        <v>6585353998.737029</v>
+        <v>5847246009.729087</v>
       </c>
       <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>-11.20832667688784</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44800</v>
+        <v>44801</v>
       </c>
       <c r="B13" t="n">
-        <v>20.62468377710467</v>
+        <v>20.15951899267283</v>
       </c>
       <c r="C13" t="n">
-        <v>415680010.4343049</v>
+        <v>278803543.1496108</v>
       </c>
       <c r="D13" t="n">
-        <v>5847246009.729087</v>
+        <v>5749207481.066454</v>
       </c>
       <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>-1.676661602735874</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44801</v>
+        <v>44802</v>
       </c>
       <c r="B14" t="n">
-        <v>20.15951899267283</v>
+        <v>18.50213881721995</v>
       </c>
       <c r="C14" t="n">
-        <v>278803543.1496108</v>
+        <v>311288063.8368916</v>
       </c>
       <c r="D14" t="n">
-        <v>5749207481.066454</v>
+        <v>5261790721.020153</v>
       </c>
       <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>-8.477981733160323</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44802</v>
+        <v>44803</v>
       </c>
       <c r="B15" t="n">
-        <v>18.50213881721995</v>
+        <v>19.39437338977039</v>
       </c>
       <c r="C15" t="n">
-        <v>311288063.8368916</v>
+        <v>523604236.7642736</v>
       </c>
       <c r="D15" t="n">
-        <v>5261790721.020153</v>
+        <v>5542192220.393582</v>
       </c>
       <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>5.329012768471819</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="B16" t="n">
-        <v>19.39437338977039</v>
+        <v>19.3462566946549</v>
       </c>
       <c r="C16" t="n">
-        <v>523604236.7642736</v>
+        <v>520162231.9624505</v>
       </c>
       <c r="D16" t="n">
-        <v>5542192220.393582</v>
+        <v>5552239521.442457</v>
       </c>
       <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>0.1812874878627246</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="B17" t="n">
-        <v>19.3462566946549</v>
+        <v>19.10326584705861</v>
       </c>
       <c r="C17" t="n">
-        <v>520162231.9624505</v>
+        <v>347264486.5860822</v>
       </c>
       <c r="D17" t="n">
-        <v>5552239521.442457</v>
+        <v>5622851605.675999</v>
       </c>
       <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>1.271776622043075</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="B18" t="n">
-        <v>19.10326584705861</v>
+        <v>19.33518341962788</v>
       </c>
       <c r="C18" t="n">
-        <v>347264486.5860822</v>
+        <v>258760696.0215163</v>
       </c>
       <c r="D18" t="n">
-        <v>5622851605.675999</v>
+        <v>5684477948.888453</v>
       </c>
       <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>1.095998036836798</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44806</v>
+        <v>44807</v>
       </c>
       <c r="B19" t="n">
-        <v>19.33518341962788</v>
+        <v>18.84118493901736</v>
       </c>
       <c r="C19" t="n">
-        <v>258760696.0215163</v>
+        <v>238552776.0126273</v>
       </c>
       <c r="D19" t="n">
-        <v>5684477948.888453</v>
+        <v>5548380262.414947</v>
       </c>
       <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>-2.39419851210998</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44807</v>
+        <v>44808</v>
       </c>
       <c r="B20" t="n">
-        <v>18.84118493901736</v>
+        <v>18.87459885869279</v>
       </c>
       <c r="C20" t="n">
-        <v>238552776.0126273</v>
+        <v>138416682.6460545</v>
       </c>
       <c r="D20" t="n">
-        <v>5548380262.414947</v>
+        <v>5555445963.543313</v>
       </c>
       <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>0.127347095804331</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44808</v>
+        <v>44809</v>
       </c>
       <c r="B21" t="n">
-        <v>18.87459885869279</v>
+        <v>19.01291129576973</v>
       </c>
       <c r="C21" t="n">
-        <v>138416682.6460545</v>
+        <v>146818676.3979624</v>
       </c>
       <c r="D21" t="n">
-        <v>5555445963.543313</v>
+        <v>5596962510.603319</v>
       </c>
       <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>0.7473125889883914</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44809</v>
+        <v>44810</v>
       </c>
       <c r="B22" t="n">
-        <v>19.01291129576973</v>
+        <v>19.37640263762838</v>
       </c>
       <c r="C22" t="n">
-        <v>146818676.3979624</v>
+        <v>184173053.4812068</v>
       </c>
       <c r="D22" t="n">
-        <v>5596962510.603319</v>
+        <v>5642232064.962178</v>
       </c>
       <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.8088236123271697</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="B23" t="n">
-        <v>19.37640263762838</v>
+        <v>18.24995076103216</v>
       </c>
       <c r="C23" t="n">
-        <v>184173053.4812068</v>
+        <v>414068765.6556565</v>
       </c>
       <c r="D23" t="n">
-        <v>5642232064.962178</v>
+        <v>5385107338.703122</v>
       </c>
       <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>-4.557145528553863</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="B24" t="n">
-        <v>18.24995076103216</v>
+        <v>19.0215071850802</v>
       </c>
       <c r="C24" t="n">
-        <v>414068765.6556565</v>
+        <v>279198608.9781768</v>
       </c>
       <c r="D24" t="n">
-        <v>5385107338.703122</v>
+        <v>5624214358.751143</v>
       </c>
       <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>4.440153278460079</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="B25" t="n">
-        <v>19.0215071850802</v>
+        <v>19.12641733384427</v>
       </c>
       <c r="C25" t="n">
-        <v>279198608.9781768</v>
+        <v>247901528.2436289</v>
       </c>
       <c r="D25" t="n">
-        <v>5624214358.751143</v>
+        <v>5646686843.331168</v>
       </c>
       <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>0.3995666442737633</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44813</v>
+        <v>44814</v>
       </c>
       <c r="B26" t="n">
-        <v>19.12641733384427</v>
+        <v>20.33778624702441</v>
       </c>
       <c r="C26" t="n">
-        <v>247901528.2436289</v>
+        <v>345582291.6922746</v>
       </c>
       <c r="D26" t="n">
-        <v>5646686843.331168</v>
+        <v>6010227939.258221</v>
       </c>
       <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>6.438130996345248</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44814</v>
+        <v>44815</v>
       </c>
       <c r="B27" t="n">
-        <v>20.33778624702441</v>
+        <v>20.52057963483536</v>
       </c>
       <c r="C27" t="n">
-        <v>345582291.6922746</v>
+        <v>315129243.4086446</v>
       </c>
       <c r="D27" t="n">
-        <v>6010227939.258221</v>
+        <v>6072981479.80872</v>
       </c>
       <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>1.044112489321725</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44815</v>
+        <v>44816</v>
       </c>
       <c r="B28" t="n">
-        <v>20.52057963483536</v>
+        <v>20.59617712963203</v>
       </c>
       <c r="C28" t="n">
-        <v>315129243.4086446</v>
+        <v>290314556.0000306</v>
       </c>
       <c r="D28" t="n">
-        <v>6072981479.80872</v>
+        <v>6088678141.428216</v>
       </c>
       <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>0.2584671412498851</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="B29" t="n">
-        <v>20.59617712963203</v>
+        <v>21.3247118082465</v>
       </c>
       <c r="C29" t="n">
-        <v>290314556.0000306</v>
+        <v>656207899.1223853</v>
       </c>
       <c r="D29" t="n">
-        <v>6088678141.428216</v>
+        <v>6294701399.910242</v>
       </c>
       <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>3.383710777553106</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="B30" t="n">
-        <v>21.3247118082465</v>
+        <v>18.90465943148506</v>
       </c>
       <c r="C30" t="n">
-        <v>656207899.1223853</v>
+        <v>555844789.2901565</v>
       </c>
       <c r="D30" t="n">
-        <v>6294701399.910242</v>
+        <v>5591520884.473786</v>
       </c>
       <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>-11.17099081850781</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="B31" t="n">
-        <v>18.90465943148506</v>
+        <v>19.16095708631396</v>
       </c>
       <c r="C31" t="n">
-        <v>555844789.2901565</v>
+        <v>338628547.1059982</v>
       </c>
       <c r="D31" t="n">
-        <v>5591520884.473786</v>
+        <v>5645652382.153831</v>
       </c>
       <c r="E31" t="n">
-        <v>2.608568467178217</v>
+        <v>2.305940522676755</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9680997138069136</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44819</v>
+        <v>44820</v>
       </c>
       <c r="B32" t="n">
-        <v>19.16095708631396</v>
+        <v>18.19750412790266</v>
       </c>
       <c r="C32" t="n">
-        <v>338628547.1059982</v>
+        <v>369102169.3008817</v>
       </c>
       <c r="D32" t="n">
-        <v>5645652382.153831</v>
+        <v>5387976779.888762</v>
       </c>
       <c r="E32" t="n">
-        <v>2.305940522676754</v>
+        <v>2.021045289399332</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-4.564142189830767</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44820</v>
+        <v>44821</v>
       </c>
       <c r="B33" t="n">
-        <v>18.19750412790266</v>
+        <v>18.03786655024619</v>
       </c>
       <c r="C33" t="n">
-        <v>369102169.3008817</v>
+        <v>280168296.243047</v>
       </c>
       <c r="D33" t="n">
-        <v>5387976779.888762</v>
+        <v>5338902517.868321</v>
       </c>
       <c r="E33" t="n">
-        <v>2.021045289399332</v>
+        <v>1.846054189522063</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.9108105700012747</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44821</v>
+        <v>44822</v>
       </c>
       <c r="B34" t="n">
-        <v>18.03786655024619</v>
+        <v>18.47508618750202</v>
       </c>
       <c r="C34" t="n">
-        <v>280168296.243047</v>
+        <v>174717790.1840553</v>
       </c>
       <c r="D34" t="n">
-        <v>5338902517.868321</v>
+        <v>5460658972.684314</v>
       </c>
       <c r="E34" t="n">
-        <v>1.846054189522064</v>
+        <v>1.71818394472478</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2.28055212487015</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44822</v>
+        <v>44823</v>
       </c>
       <c r="B35" t="n">
-        <v>18.47508618750202</v>
+        <v>16.77242326757521</v>
       </c>
       <c r="C35" t="n">
-        <v>174717790.1840553</v>
+        <v>319620171.6444016</v>
       </c>
       <c r="D35" t="n">
-        <v>5460658972.684314</v>
+        <v>4969156595.109048</v>
       </c>
       <c r="E35" t="n">
-        <v>1.718183944724782</v>
+        <v>1.764434868011342</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-9.000788733262654</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44823</v>
+        <v>44824</v>
       </c>
       <c r="B36" t="n">
-        <v>16.77242326757521</v>
+        <v>17.33139833198993</v>
       </c>
       <c r="C36" t="n">
-        <v>319620171.6444016</v>
+        <v>250555877.7466516</v>
       </c>
       <c r="D36" t="n">
-        <v>4969156595.109048</v>
+        <v>5128126603.379806</v>
       </c>
       <c r="E36" t="n">
-        <v>1.764434868011345</v>
+        <v>1.771839530775301</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3.199134606207132</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="B37" t="n">
-        <v>17.33139833198993</v>
+        <v>16.6592285006815</v>
       </c>
       <c r="C37" t="n">
-        <v>250555877.7466516</v>
+        <v>213873554.3024987</v>
       </c>
       <c r="D37" t="n">
-        <v>5128126603.379806</v>
+        <v>4932167219.93796</v>
       </c>
       <c r="E37" t="n">
-        <v>1.771839530775304</v>
+        <v>1.750522848515764</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-3.821266489651298</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44825</v>
+        <v>44826</v>
       </c>
       <c r="B38" t="n">
-        <v>16.6592285006815</v>
+        <v>16.62010157527227</v>
       </c>
       <c r="C38" t="n">
-        <v>213873554.3024987</v>
+        <v>340372009.2839423</v>
       </c>
       <c r="D38" t="n">
-        <v>4932167219.93796</v>
+        <v>4903381064.412029</v>
       </c>
       <c r="E38" t="n">
-        <v>1.750522848515768</v>
+        <v>1.737112418037692</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.5836411103330885</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="B39" t="n">
-        <v>16.62010157527227</v>
+        <v>17.72119179072971</v>
       </c>
       <c r="C39" t="n">
-        <v>340372009.2839423</v>
+        <v>241451889.950426</v>
       </c>
       <c r="D39" t="n">
-        <v>4903381064.412029</v>
+        <v>5228726541.539872</v>
       </c>
       <c r="E39" t="n">
-        <v>1.737112418037698</v>
+        <v>1.571783680018498</v>
+      </c>
+      <c r="F39" t="n">
+        <v>6.63512529118222</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44827</v>
+        <v>44828</v>
       </c>
       <c r="B40" t="n">
-        <v>17.72119179072971</v>
+        <v>17.97892251307217</v>
       </c>
       <c r="C40" t="n">
-        <v>241451889.950426</v>
+        <v>258558393.1978641</v>
       </c>
       <c r="D40" t="n">
-        <v>5228726541.539872</v>
+        <v>5331293400.979275</v>
       </c>
       <c r="E40" t="n">
-        <v>1.571783680018505</v>
+        <v>1.407763236402363</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.961603052379113</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44828</v>
+        <v>44829</v>
       </c>
       <c r="B41" t="n">
-        <v>17.97892251307217</v>
+        <v>17.63284262634446</v>
       </c>
       <c r="C41" t="n">
-        <v>258558393.1978641</v>
+        <v>143664792.01719</v>
       </c>
       <c r="D41" t="n">
-        <v>5331293400.979275</v>
+        <v>5217162468.361474</v>
       </c>
       <c r="E41" t="n">
-        <v>1.407763236402371</v>
+        <v>1.203551445922975</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-2.140773805411589</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44829</v>
+        <v>44830</v>
       </c>
       <c r="B42" t="n">
-        <v>17.63284262634446</v>
+        <v>17.31977397935662</v>
       </c>
       <c r="C42" t="n">
-        <v>143664792.01719</v>
+        <v>116559876.7924923</v>
       </c>
       <c r="D42" t="n">
-        <v>5217162468.361474</v>
+        <v>5128051851.556717</v>
       </c>
       <c r="E42" t="n">
-        <v>1.203551445922986</v>
+        <v>1.185810245639111</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-1.708028403277684</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44830</v>
+        <v>44831</v>
       </c>
       <c r="B43" t="n">
-        <v>17.31977397935662</v>
+        <v>17.52015527156936</v>
       </c>
       <c r="C43" t="n">
-        <v>116559876.7924923</v>
+        <v>185780594.9943946</v>
       </c>
       <c r="D43" t="n">
-        <v>5128051851.556717</v>
+        <v>5162522045.155828</v>
       </c>
       <c r="E43" t="n">
-        <v>1.185810245639122</v>
+        <v>1.174034724814228</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.6721888661996855</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="B44" t="n">
-        <v>17.52015527156936</v>
+        <v>17.31941398159344</v>
       </c>
       <c r="C44" t="n">
-        <v>185780594.9943946</v>
+        <v>294813208.1843506</v>
       </c>
       <c r="D44" t="n">
-        <v>5162522045.155828</v>
+        <v>5124694420.108582</v>
       </c>
       <c r="E44" t="n">
-        <v>1.17403472481424</v>
+        <v>1.198536706050369</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.7327353707426765</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="B45" t="n">
-        <v>17.31941398159344</v>
+        <v>17.30089122403362</v>
       </c>
       <c r="C45" t="n">
-        <v>294813208.1843506</v>
+        <v>237998087.1119915</v>
       </c>
       <c r="D45" t="n">
-        <v>5124694420.108582</v>
+        <v>5117069972.600616</v>
       </c>
       <c r="E45" t="n">
-        <v>1.19853670605038</v>
+        <v>1.211788788288043</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.1487785784465512</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="B46" t="n">
-        <v>17.30089122403362</v>
+        <v>17.34942964318803</v>
       </c>
       <c r="C46" t="n">
-        <v>237998087.1119915</v>
+        <v>178584632.4693805</v>
       </c>
       <c r="D46" t="n">
-        <v>5117069972.600616</v>
+        <v>5129624505.513472</v>
       </c>
       <c r="E46" t="n">
-        <v>1.211788788288055</v>
+        <v>1.220443373939522</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.2453461254209754</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44834</v>
+        <v>44835</v>
       </c>
       <c r="B47" t="n">
-        <v>17.34942964318803</v>
+        <v>17.20194529291745</v>
       </c>
       <c r="C47" t="n">
-        <v>178584632.4693805</v>
+        <v>223400291.0116651</v>
       </c>
       <c r="D47" t="n">
-        <v>5129624505.513472</v>
+        <v>5096140744.727143</v>
       </c>
       <c r="E47" t="n">
-        <v>1.220443373939534</v>
+        <v>1.235559272161345</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.6527526673802186</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44835</v>
+        <v>44836</v>
       </c>
       <c r="B48" t="n">
-        <v>17.20194529291745</v>
+        <v>16.97200474320262</v>
       </c>
       <c r="C48" t="n">
-        <v>223400291.0116651</v>
+        <v>114547216.4003112</v>
       </c>
       <c r="D48" t="n">
-        <v>5096140744.727143</v>
+        <v>5027498343.396645</v>
       </c>
       <c r="E48" t="n">
-        <v>1.235559272161358</v>
+        <v>1.249401764118466</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-1.346948696452732</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44836</v>
+        <v>44837</v>
       </c>
       <c r="B49" t="n">
-        <v>16.97200474320262</v>
+        <v>16.55833784302162</v>
       </c>
       <c r="C49" t="n">
-        <v>114547216.4003112</v>
+        <v>145440568.345117</v>
       </c>
       <c r="D49" t="n">
-        <v>5027498343.396645</v>
+        <v>4920590407.467317</v>
       </c>
       <c r="E49" t="n">
-        <v>1.249401764118479</v>
+        <v>1.285882156589272</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-2.126463871832918</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44837</v>
+        <v>44838</v>
       </c>
       <c r="B50" t="n">
-        <v>16.55833784302162</v>
+        <v>17.17642561379372</v>
       </c>
       <c r="C50" t="n">
-        <v>145440568.345117</v>
+        <v>176270052.6076711</v>
       </c>
       <c r="D50" t="n">
-        <v>4920590407.467317</v>
+        <v>5105360296.989269</v>
       </c>
       <c r="E50" t="n">
-        <v>1.285882156589285</v>
+        <v>1.294747961738435</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3.755034949496139</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44838</v>
+        <v>44839</v>
       </c>
       <c r="B51" t="n">
-        <v>17.17642561379372</v>
+        <v>17.44584323934388</v>
       </c>
       <c r="C51" t="n">
-        <v>176270052.6076711</v>
+        <v>159964549.9203115</v>
       </c>
       <c r="D51" t="n">
-        <v>5105360296.989269</v>
+        <v>5163743356.55613</v>
       </c>
       <c r="E51" t="n">
-        <v>1.294747961738449</v>
+        <v>1.292118955361085</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.143563943984338</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44839</v>
+        <v>44840</v>
       </c>
       <c r="B52" t="n">
-        <v>17.44584323934388</v>
+        <v>17.34775637126134</v>
       </c>
       <c r="C52" t="n">
-        <v>159964549.9203115</v>
+        <v>159374815.3429362</v>
       </c>
       <c r="D52" t="n">
-        <v>5163743356.55613</v>
+        <v>5133040884.592073</v>
       </c>
       <c r="E52" t="n">
-        <v>1.292118955361099</v>
+        <v>1.278208504666866</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.5945778061389406</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44840</v>
+        <v>44841</v>
       </c>
       <c r="B53" t="n">
-        <v>17.34775637126134</v>
+        <v>17.04761207683205</v>
       </c>
       <c r="C53" t="n">
-        <v>159374815.3429362</v>
+        <v>164985484.8918142</v>
       </c>
       <c r="D53" t="n">
-        <v>5133040884.592073</v>
+        <v>5048105400.876881</v>
       </c>
       <c r="E53" t="n">
-        <v>1.27820850466688</v>
+        <v>1.291242595733186</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-1.654681613196285</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44841</v>
+        <v>44842</v>
       </c>
       <c r="B54" t="n">
-        <v>17.04761207683205</v>
+        <v>16.8251833619114</v>
       </c>
       <c r="C54" t="n">
-        <v>164985484.8918142</v>
+        <v>156833323.3330577</v>
       </c>
       <c r="D54" t="n">
-        <v>5048105400.876881</v>
+        <v>4977936656.757804</v>
       </c>
       <c r="E54" t="n">
-        <v>1.2912425957332</v>
+        <v>1.295498544504398</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-1.390001565872379</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44842</v>
+        <v>44843</v>
       </c>
       <c r="B55" t="n">
-        <v>16.8251833619114</v>
+        <v>16.78378051061595</v>
       </c>
       <c r="C55" t="n">
-        <v>156833323.3330577</v>
+        <v>81643431.29891983</v>
       </c>
       <c r="D55" t="n">
-        <v>4977936656.757804</v>
+        <v>4970263236.783918</v>
       </c>
       <c r="E55" t="n">
-        <v>1.295498544504413</v>
+        <v>1.293331649659492</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.154148606199489</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44843</v>
+        <v>44844</v>
       </c>
       <c r="B56" t="n">
-        <v>16.78378051061595</v>
+        <v>16.90026486278644</v>
       </c>
       <c r="C56" t="n">
-        <v>81643431.29891983</v>
+        <v>80703198.94074182</v>
       </c>
       <c r="D56" t="n">
-        <v>4970263236.783918</v>
+        <v>4995293527.867108</v>
       </c>
       <c r="E56" t="n">
-        <v>1.293331649659507</v>
+        <v>1.218293647599095</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.5036009138901454</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44844</v>
+        <v>44845</v>
       </c>
       <c r="B57" t="n">
-        <v>16.90026486278644</v>
+        <v>16.24277778863624</v>
       </c>
       <c r="C57" t="n">
-        <v>80703198.94074182</v>
+        <v>146933327.4835411</v>
       </c>
       <c r="D57" t="n">
-        <v>4995293527.867108</v>
+        <v>4814324834.115859</v>
       </c>
       <c r="E57" t="n">
-        <v>1.218293647599112</v>
+        <v>1.132160908140806</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-3.622783981395372</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44845</v>
+        <v>44846</v>
       </c>
       <c r="B58" t="n">
-        <v>16.24277778863624</v>
+        <v>15.94691568917108</v>
       </c>
       <c r="C58" t="n">
-        <v>146933327.4835411</v>
+        <v>183261739.1814223</v>
       </c>
       <c r="D58" t="n">
-        <v>4814324834.115859</v>
+        <v>4718935609.594896</v>
       </c>
       <c r="E58" t="n">
-        <v>1.132160908140825</v>
+        <v>1.024384788015181</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-1.981362450763691</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44846</v>
+        <v>44847</v>
       </c>
       <c r="B59" t="n">
-        <v>15.94691568917108</v>
+        <v>15.94816281298998</v>
       </c>
       <c r="C59" t="n">
-        <v>183261739.1814223</v>
+        <v>109226315.7904929</v>
       </c>
       <c r="D59" t="n">
-        <v>4718935609.594896</v>
+        <v>4728714085.16282</v>
       </c>
       <c r="E59" t="n">
-        <v>1.024384788015203</v>
+        <v>0.7637555871180393</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.2072178214943543</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="B60" t="n">
-        <v>15.94816281298998</v>
+        <v>15.6694146550145</v>
       </c>
       <c r="C60" t="n">
-        <v>109226315.7904929</v>
+        <v>322317859.6081873</v>
       </c>
       <c r="D60" t="n">
-        <v>4728714085.16282</v>
+        <v>4641098221.221644</v>
       </c>
       <c r="E60" t="n">
-        <v>0.7637555871180708</v>
+        <v>0.7562700390362668</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-1.852847568350258</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44848</v>
+        <v>44849</v>
       </c>
       <c r="B61" t="n">
-        <v>15.6694146550145</v>
+        <v>15.6989307981447</v>
       </c>
       <c r="C61" t="n">
-        <v>322317859.6081873</v>
+        <v>188508250.9748418</v>
       </c>
       <c r="D61" t="n">
-        <v>4641098221.221644</v>
+        <v>4638088681.56679</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7562700390362996</v>
+        <v>0.706397430677</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-0.06484542044582486</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44849</v>
+        <v>44850</v>
       </c>
       <c r="B62" t="n">
-        <v>15.6989307981447</v>
+        <v>15.44161108844599</v>
       </c>
       <c r="C62" t="n">
-        <v>188508250.9748418</v>
+        <v>103206247.6638372</v>
       </c>
       <c r="D62" t="n">
-        <v>4638088681.56679</v>
+        <v>4579441413.581862</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7063974306770364</v>
+        <v>0.7329689556260724</v>
+      </c>
+      <c r="F62" t="n">
+        <v>-1.264470604411028</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="B63" t="n">
-        <v>15.44161108844599</v>
+        <v>15.75945013037047</v>
       </c>
       <c r="C63" t="n">
-        <v>103206247.6638372</v>
+        <v>117501844.2146138</v>
       </c>
       <c r="D63" t="n">
-        <v>4579441413.581862</v>
+        <v>4669888753.273473</v>
       </c>
       <c r="E63" t="n">
-        <v>0.7329689556261084</v>
+        <v>0.7370548025711064</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.975073628485746</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44851</v>
+        <v>44852</v>
       </c>
       <c r="B64" t="n">
-        <v>15.75945013037047</v>
+        <v>16.21363898484777</v>
       </c>
       <c r="C64" t="n">
-        <v>117501844.2146138</v>
+        <v>148869262.6884462</v>
       </c>
       <c r="D64" t="n">
-        <v>4669888753.273473</v>
+        <v>4808057084.344471</v>
       </c>
       <c r="E64" t="n">
-        <v>0.7370548025711429</v>
+        <v>0.6840304885025212</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2.958707120681314</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44852</v>
+        <v>44853</v>
       </c>
       <c r="B65" t="n">
-        <v>16.21363898484777</v>
+        <v>15.89612118913032</v>
       </c>
       <c r="C65" t="n">
-        <v>148869262.6884462</v>
+        <v>174532915.4632814</v>
       </c>
       <c r="D65" t="n">
-        <v>4808057084.344471</v>
+        <v>4709898211.497148</v>
       </c>
       <c r="E65" t="n">
-        <v>0.6840304885025613</v>
+        <v>0.7046864735410511</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-2.041549655617414</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44853</v>
+        <v>44854</v>
       </c>
       <c r="B66" t="n">
-        <v>15.89612118913032</v>
+        <v>15.10759908997374</v>
       </c>
       <c r="C66" t="n">
-        <v>174532915.4632814</v>
+        <v>219986241.0781785</v>
       </c>
       <c r="D66" t="n">
-        <v>4709898211.497148</v>
+        <v>4489125546.211865</v>
       </c>
       <c r="E66" t="n">
-        <v>0.7046864735410904</v>
+        <v>0.7609573910851849</v>
+      </c>
+      <c r="F66" t="n">
+        <v>-4.687419034797024</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44854</v>
+        <v>44855</v>
       </c>
       <c r="B67" t="n">
-        <v>15.10759908997374</v>
+        <v>15.16282764229112</v>
       </c>
       <c r="C67" t="n">
-        <v>219986241.0781785</v>
+        <v>234128836.442663</v>
       </c>
       <c r="D67" t="n">
-        <v>4489125546.211865</v>
+        <v>4496118067.237981</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7609573910852219</v>
+        <v>0.8123964504801897</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.1557657711759974</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44855</v>
+        <v>44856</v>
       </c>
       <c r="B68" t="n">
-        <v>15.16282764229112</v>
+        <v>15.69209787061686</v>
       </c>
       <c r="C68" t="n">
-        <v>234128836.442663</v>
+        <v>242243157.2557525</v>
       </c>
       <c r="D68" t="n">
-        <v>4496118067.237981</v>
+        <v>4651315496.029366</v>
       </c>
       <c r="E68" t="n">
-        <v>0.8123964504802248</v>
+        <v>0.8318099323705989</v>
+      </c>
+      <c r="F68" t="n">
+        <v>3.451809460304611</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44856</v>
+        <v>44857</v>
       </c>
       <c r="B69" t="n">
-        <v>15.69209787061686</v>
+        <v>15.68163315019697</v>
       </c>
       <c r="C69" t="n">
-        <v>242243157.2557525</v>
+        <v>128845118.8272365</v>
       </c>
       <c r="D69" t="n">
-        <v>4651315496.029366</v>
+        <v>4652566948.932101</v>
       </c>
       <c r="E69" t="n">
-        <v>0.8318099323706334</v>
+        <v>0.8236507656249858</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.02690535406173478</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44857</v>
+        <v>44858</v>
       </c>
       <c r="B70" t="n">
-        <v>15.68163315019697</v>
+        <v>16.29689828459178</v>
       </c>
       <c r="C70" t="n">
-        <v>128845118.8272365</v>
+        <v>203496313.7712687</v>
       </c>
       <c r="D70" t="n">
-        <v>4652566948.932101</v>
+        <v>4847145745.981251</v>
       </c>
       <c r="E70" t="n">
-        <v>0.8236507656250213</v>
+        <v>0.7806609751528127</v>
+      </c>
+      <c r="F70" t="n">
+        <v>4.182181560951226</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44858</v>
+        <v>44859</v>
       </c>
       <c r="B71" t="n">
-        <v>16.29689828459178</v>
+        <v>15.73381726367368</v>
       </c>
       <c r="C71" t="n">
-        <v>203496313.7712687</v>
+        <v>161568199.204446</v>
       </c>
       <c r="D71" t="n">
-        <v>4847145745.981251</v>
+        <v>4673816695.594893</v>
       </c>
       <c r="E71" t="n">
-        <v>0.7806609751528508</v>
+        <v>0.7637297924906009</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-3.575899291455487</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44859</v>
+        <v>44860</v>
       </c>
       <c r="B72" t="n">
-        <v>15.73381726367368</v>
+        <v>16.66926598415717</v>
       </c>
       <c r="C72" t="n">
-        <v>161568199.204446</v>
+        <v>277057658.8457239</v>
       </c>
       <c r="D72" t="n">
-        <v>4673816695.594893</v>
+        <v>4961385737.273298</v>
       </c>
       <c r="E72" t="n">
-        <v>0.7637297924906402</v>
+        <v>0.7473011473388683</v>
+      </c>
+      <c r="F72" t="n">
+        <v>6.15276679441541</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="B73" t="n">
-        <v>16.66926598415717</v>
+        <v>17.02048404327999</v>
       </c>
       <c r="C73" t="n">
-        <v>277057658.8457239</v>
+        <v>336671014.6080211</v>
       </c>
       <c r="D73" t="n">
-        <v>4961385737.273298</v>
+        <v>5063097782.122887</v>
       </c>
       <c r="E73" t="n">
-        <v>0.7473011473389088</v>
+        <v>0.7274793904542584</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2.05007331087883</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44861</v>
+        <v>44862</v>
       </c>
       <c r="B74" t="n">
-        <v>17.02048404327999</v>
+        <v>16.9407619410443</v>
       </c>
       <c r="C74" t="n">
-        <v>336671014.6080211</v>
+        <v>366572075.7883126</v>
       </c>
       <c r="D74" t="n">
-        <v>5063097782.122887</v>
+        <v>5052552433.499687</v>
       </c>
       <c r="E74" t="n">
-        <v>0.7274793904543003</v>
+        <v>0.7143901942066222</v>
+      </c>
+      <c r="F74" t="n">
+        <v>-0.2082785890573535</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44862</v>
+        <v>44863</v>
       </c>
       <c r="B75" t="n">
-        <v>16.9407619410443</v>
+        <v>18.33357156100367</v>
       </c>
       <c r="C75" t="n">
-        <v>366572075.7883126</v>
+        <v>448320103.384078</v>
       </c>
       <c r="D75" t="n">
-        <v>5052552433.499687</v>
+        <v>5464104467.174119</v>
       </c>
       <c r="E75" t="n">
-        <v>0.7143901942066649</v>
+        <v>0.7810161040686774</v>
+      </c>
+      <c r="F75" t="n">
+        <v>8.145428258116416</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44863</v>
+        <v>44864</v>
       </c>
       <c r="B76" t="n">
-        <v>18.33357156100367</v>
+        <v>18.2969267148701</v>
       </c>
       <c r="C76" t="n">
-        <v>448320103.384078</v>
+        <v>330856397.5818271</v>
       </c>
       <c r="D76" t="n">
-        <v>5464104467.174119</v>
+        <v>5451680456.450788</v>
       </c>
       <c r="E76" t="n">
-        <v>0.7810161040687162</v>
+        <v>0.8364403859642837</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.2273750584010359</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44864</v>
+        <v>44865</v>
       </c>
       <c r="B77" t="n">
-        <v>18.2969267148701</v>
+        <v>18.24882328230915</v>
       </c>
       <c r="C77" t="n">
-        <v>330856397.5818271</v>
+        <v>288620929.7407291</v>
       </c>
       <c r="D77" t="n">
-        <v>5451680456.450788</v>
+        <v>5433061278.21818</v>
       </c>
       <c r="E77" t="n">
-        <v>0.8364403859643197</v>
+        <v>0.8883812688709692</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-0.3415309899643448</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44865</v>
+        <v>44866</v>
       </c>
       <c r="B78" t="n">
-        <v>18.24882328230915</v>
+        <v>19.29760813539129</v>
       </c>
       <c r="C78" t="n">
-        <v>288620929.7407291</v>
+        <v>521910364.7812999</v>
       </c>
       <c r="D78" t="n">
-        <v>5433061278.21818</v>
+        <v>5775047507.582578</v>
       </c>
       <c r="E78" t="n">
-        <v>0.8883812688710029</v>
+        <v>1.022198796362785</v>
+      </c>
+      <c r="F78" t="n">
+        <v>6.294540257358472</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44866</v>
+        <v>44867</v>
       </c>
       <c r="B79" t="n">
-        <v>19.29760813539129</v>
+        <v>18.66379450576352</v>
       </c>
       <c r="C79" t="n">
-        <v>521910364.7812999</v>
+        <v>435506756.9456223</v>
       </c>
       <c r="D79" t="n">
-        <v>5775047507.582578</v>
+        <v>5576527567.809237</v>
       </c>
       <c r="E79" t="n">
-        <v>1.022198796362814</v>
+        <v>1.090680839458829</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-3.437546435984928</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>44867</v>
+        <v>44868</v>
       </c>
       <c r="B80" t="n">
-        <v>18.66379450576352</v>
+        <v>17.90528290561858</v>
       </c>
       <c r="C80" t="n">
-        <v>435506756.9456223</v>
+        <v>514339997.3881611</v>
       </c>
       <c r="D80" t="n">
-        <v>5576527567.809237</v>
+        <v>5389406082.974267</v>
       </c>
       <c r="E80" t="n">
-        <v>1.090680839458855</v>
+        <v>1.110752239131898</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-3.355519766729698</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>44868</v>
+        <v>44869</v>
       </c>
       <c r="B81" t="n">
-        <v>17.90528290561858</v>
+        <v>18.03331201352599</v>
       </c>
       <c r="C81" t="n">
-        <v>514339997.3881611</v>
+        <v>360858295.7802278</v>
       </c>
       <c r="D81" t="n">
-        <v>5389406082.974267</v>
+        <v>5383566475.845248</v>
       </c>
       <c r="E81" t="n">
-        <v>1.110752239131924</v>
+        <v>1.129843955518953</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.1083534445004419</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>44869</v>
+        <v>44870</v>
       </c>
       <c r="B82" t="n">
-        <v>18.03331201352599</v>
+        <v>19.3736693085129</v>
       </c>
       <c r="C82" t="n">
-        <v>360858295.7802278</v>
+        <v>516343577.797103</v>
       </c>
       <c r="D82" t="n">
-        <v>5383566475.845248</v>
+        <v>5785089764.719382</v>
       </c>
       <c r="E82" t="n">
-        <v>1.129843955518979</v>
+        <v>1.226687999329037</v>
+      </c>
+      <c r="F82" t="n">
+        <v>7.458313938829786</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>44870</v>
+        <v>44871</v>
       </c>
       <c r="B83" t="n">
-        <v>19.3736693085129</v>
+        <v>19.59628838281898</v>
       </c>
       <c r="C83" t="n">
-        <v>516343577.797103</v>
+        <v>525767128.6759523</v>
       </c>
       <c r="D83" t="n">
-        <v>5785089764.719382</v>
+        <v>5868715762.104095</v>
       </c>
       <c r="E83" t="n">
-        <v>1.22668799932906</v>
+        <v>1.331034708758426</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.445543643846459</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>44871</v>
+        <v>44872</v>
       </c>
       <c r="B84" t="n">
-        <v>19.59628838281898</v>
+        <v>18.30051379459872</v>
       </c>
       <c r="C84" t="n">
-        <v>525767128.6759523</v>
+        <v>341327948.2007174</v>
       </c>
       <c r="D84" t="n">
-        <v>5868715762.104095</v>
+        <v>5480004094.638582</v>
       </c>
       <c r="E84" t="n">
-        <v>1.331034708758446</v>
+        <v>1.357234540074354</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-6.62345363487411</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>44872</v>
+        <v>44873</v>
       </c>
       <c r="B85" t="n">
-        <v>18.30051379459872</v>
+        <v>18.04611337734812</v>
       </c>
       <c r="C85" t="n">
-        <v>341327948.2007174</v>
+        <v>425943497.8126711</v>
       </c>
       <c r="D85" t="n">
-        <v>5480004094.638582</v>
+        <v>5396277877.83954</v>
       </c>
       <c r="E85" t="n">
-        <v>1.357234540074374</v>
+        <v>1.373135512028101</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-1.527849529911052</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>44873</v>
+        <v>44874</v>
       </c>
       <c r="B86" t="n">
-        <v>18.04611337734812</v>
+        <v>15.99124134828134</v>
       </c>
       <c r="C86" t="n">
-        <v>425943497.8126711</v>
+        <v>832763930.4785045</v>
       </c>
       <c r="D86" t="n">
-        <v>5396277877.83954</v>
+        <v>4821158416.373545</v>
       </c>
       <c r="E86" t="n">
-        <v>1.373135512028121</v>
+        <v>1.383967541529997</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-10.65770656155037</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>44874</v>
+        <v>44875</v>
       </c>
       <c r="B87" t="n">
-        <v>15.99124134828134</v>
+        <v>12.82979578095956</v>
       </c>
       <c r="C87" t="n">
-        <v>832763930.4785045</v>
+        <v>624316829.684165</v>
       </c>
       <c r="D87" t="n">
-        <v>4821158416.373545</v>
+        <v>3846470073.119189</v>
       </c>
       <c r="E87" t="n">
-        <v>1.383967541530016</v>
+        <v>1.56843474074381</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-20.21689102652454</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>44875</v>
+        <v>44876</v>
       </c>
       <c r="B88" t="n">
-        <v>12.82979578095956</v>
+        <v>15.40954739362723</v>
       </c>
       <c r="C88" t="n">
-        <v>624316829.684165</v>
+        <v>466991586.6308439</v>
       </c>
       <c r="D88" t="n">
-        <v>3846470073.119189</v>
+        <v>4611235657.355337</v>
       </c>
       <c r="E88" t="n">
-        <v>1.568434740743828</v>
+        <v>1.581447731930221</v>
+      </c>
+      <c r="F88" t="n">
+        <v>19.882270489524</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>44876</v>
+        <v>44877</v>
       </c>
       <c r="B89" t="n">
-        <v>15.40954739362723</v>
+        <v>14.11501190310594</v>
       </c>
       <c r="C89" t="n">
-        <v>466991586.6308439</v>
+        <v>333214112.7976555</v>
       </c>
       <c r="D89" t="n">
-        <v>4611235657.355337</v>
+        <v>4213157749.171768</v>
       </c>
       <c r="E89" t="n">
-        <v>1.581447731930239</v>
+        <v>1.648503165235918</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-8.632781704587122</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>44877</v>
+        <v>44878</v>
       </c>
       <c r="B90" t="n">
-        <v>14.11501190310594</v>
+        <v>13.0560684600413</v>
       </c>
       <c r="C90" t="n">
-        <v>333214112.7976555</v>
+        <v>144001528.3687291</v>
       </c>
       <c r="D90" t="n">
-        <v>4213157749.171768</v>
+        <v>3915534521.714201</v>
       </c>
       <c r="E90" t="n">
-        <v>1.648503165235935</v>
+        <v>1.770174590787155</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-7.064136810829702</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>44878</v>
+        <v>44879</v>
       </c>
       <c r="B91" t="n">
-        <v>13.0560684600413</v>
+        <v>13.04627691136234</v>
       </c>
       <c r="C91" t="n">
-        <v>144001528.3687291</v>
+        <v>170011827.1411676</v>
       </c>
       <c r="D91" t="n">
-        <v>3915534521.714201</v>
+        <v>3901225967.176793</v>
       </c>
       <c r="E91" t="n">
-        <v>1.770174590787171</v>
+        <v>1.880922517090854</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-0.3654304273926878</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>44879</v>
+        <v>44880</v>
       </c>
       <c r="B92" t="n">
-        <v>13.04627691136234</v>
+        <v>13.11873589525116</v>
       </c>
       <c r="C92" t="n">
-        <v>170011827.1411676</v>
+        <v>247395188.9328397</v>
       </c>
       <c r="D92" t="n">
-        <v>3901225967.176793</v>
+        <v>3946553149.873206</v>
       </c>
       <c r="E92" t="n">
-        <v>1.88092251709087</v>
+        <v>1.973188923429991</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1.161870219202288</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="B93" t="n">
-        <v>13.11873589525116</v>
+        <v>13.49637547364594</v>
       </c>
       <c r="C93" t="n">
-        <v>247395188.9328397</v>
+        <v>168716845.6483662</v>
       </c>
       <c r="D93" t="n">
-        <v>3946553149.873206</v>
+        <v>4061843929.237354</v>
       </c>
       <c r="E93" t="n">
-        <v>1.973188923430006</v>
+        <v>2.042969049743608</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2.921303096294348</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>44881</v>
+        <v>44882</v>
       </c>
       <c r="B94" t="n">
-        <v>13.49637547364594</v>
+        <v>13.10279910490184</v>
       </c>
       <c r="C94" t="n">
-        <v>168716845.6483662</v>
+        <v>144570818.8714206</v>
       </c>
       <c r="D94" t="n">
-        <v>4061843929.237354</v>
+        <v>3930951050.730922</v>
       </c>
       <c r="E94" t="n">
-        <v>2.042969049743623</v>
+        <v>2.129139804083693</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-3.222498963198928</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>44882</v>
+        <v>44883</v>
       </c>
       <c r="B95" t="n">
-        <v>13.10279910490184</v>
+        <v>12.89871909794256</v>
       </c>
       <c r="C95" t="n">
-        <v>144570818.8714206</v>
+        <v>162416845.9014563</v>
       </c>
       <c r="D95" t="n">
-        <v>3930951050.730922</v>
+        <v>3882866793.103469</v>
       </c>
       <c r="E95" t="n">
-        <v>2.129139804083708</v>
+        <v>2.216417670354339</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-1.223221988951306</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>44883</v>
+        <v>44884</v>
       </c>
       <c r="B96" t="n">
-        <v>12.89871909794256</v>
+        <v>12.99587222117148</v>
       </c>
       <c r="C96" t="n">
-        <v>162416845.9014563</v>
+        <v>145712422.2549847</v>
       </c>
       <c r="D96" t="n">
-        <v>3882866793.103469</v>
+        <v>3901035233.54059</v>
       </c>
       <c r="E96" t="n">
-        <v>2.216417670354353</v>
+        <v>2.284218443453147</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.4679130499503747</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>44884</v>
+        <v>44885</v>
       </c>
       <c r="B97" t="n">
-        <v>12.99587222117148</v>
+        <v>12.89413141056066</v>
       </c>
       <c r="C97" t="n">
-        <v>145712422.2549847</v>
+        <v>105019745.4708009</v>
       </c>
       <c r="D97" t="n">
-        <v>3901035233.54059</v>
+        <v>3877111510.472306</v>
       </c>
       <c r="E97" t="n">
-        <v>2.28421844345316</v>
+        <v>2.353231525633336</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-0.6132660085351294</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>44885</v>
+        <v>44886</v>
       </c>
       <c r="B98" t="n">
-        <v>12.89413141056066</v>
+        <v>12.22852775426123</v>
       </c>
       <c r="C98" t="n">
-        <v>105019745.4708009</v>
+        <v>138640309.8749196</v>
       </c>
       <c r="D98" t="n">
-        <v>3877111510.472306</v>
+        <v>3676970229.559294</v>
       </c>
       <c r="E98" t="n">
-        <v>2.35323152563335</v>
+        <v>2.453521145247175</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-5.162123409977227</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>44886</v>
+        <v>44887</v>
       </c>
       <c r="B99" t="n">
-        <v>12.22852775426123</v>
+        <v>11.85764197153005</v>
       </c>
       <c r="C99" t="n">
-        <v>138640309.8749196</v>
+        <v>174796854.0648045</v>
       </c>
       <c r="D99" t="n">
-        <v>3676970229.559294</v>
+        <v>3564562687.408116</v>
       </c>
       <c r="E99" t="n">
-        <v>2.453521145247188</v>
+        <v>2.563250177655429</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-3.057069683282443</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="B100" t="n">
-        <v>11.85764197153005</v>
+        <v>12.30152952583719</v>
       </c>
       <c r="C100" t="n">
-        <v>174796854.0648045</v>
+        <v>178302669.2337442</v>
       </c>
       <c r="D100" t="n">
-        <v>3564562687.408116</v>
+        <v>3710219742.682822</v>
       </c>
       <c r="E100" t="n">
-        <v>2.563250177655442</v>
+        <v>2.638859106660299</v>
+      </c>
+      <c r="F100" t="n">
+        <v>4.08625315495903</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>44888</v>
+        <v>44889</v>
       </c>
       <c r="B101" t="n">
-        <v>12.30152952583719</v>
+        <v>13.01289921705894</v>
       </c>
       <c r="C101" t="n">
-        <v>178302669.2337442</v>
+        <v>204340038.6048671</v>
       </c>
       <c r="D101" t="n">
-        <v>3710219742.682822</v>
+        <v>3911685160.847937</v>
       </c>
       <c r="E101" t="n">
-        <v>2.638859106660313</v>
+        <v>2.682633245286478</v>
+      </c>
+      <c r="F101" t="n">
+        <v>5.430013102658915</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="B102" t="n">
-        <v>13.01289921705894</v>
+        <v>12.94468404771203</v>
       </c>
       <c r="C102" t="n">
-        <v>204340038.6048671</v>
+        <v>159402624.9304203</v>
       </c>
       <c r="D102" t="n">
-        <v>3911685160.847937</v>
+        <v>3892404410.002853</v>
       </c>
       <c r="E102" t="n">
-        <v>2.682633245286491</v>
+        <v>2.715955553001472</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-0.4929013980487174</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>44890</v>
+        <v>44891</v>
       </c>
       <c r="B103" t="n">
-        <v>12.94468404771203</v>
+        <v>12.84090746238179</v>
       </c>
       <c r="C103" t="n">
-        <v>159402624.9304203</v>
+        <v>116824550.6633252</v>
       </c>
       <c r="D103" t="n">
-        <v>3892404410.002853</v>
+        <v>3867065558.052864</v>
       </c>
       <c r="E103" t="n">
-        <v>2.715955553001486</v>
+        <v>2.739461484911247</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-0.6509819967543073</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44891</v>
+        <v>44892</v>
       </c>
       <c r="B104" t="n">
-        <v>12.84090746238179</v>
+        <v>12.75561186305343</v>
       </c>
       <c r="C104" t="n">
-        <v>116824550.6633252</v>
+        <v>134910412.9627491</v>
       </c>
       <c r="D104" t="n">
-        <v>3867065558.052864</v>
+        <v>3835523452.739614</v>
       </c>
       <c r="E104" t="n">
-        <v>2.739461484911261</v>
+        <v>2.759824422581291</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-0.8156599581707558</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44892</v>
+        <v>44893</v>
       </c>
       <c r="B105" t="n">
-        <v>12.75561186305343</v>
+        <v>12.89811578568961</v>
       </c>
       <c r="C105" t="n">
-        <v>134910412.9627491</v>
+        <v>108981322.3585504</v>
       </c>
       <c r="D105" t="n">
-        <v>3835523452.739614</v>
+        <v>3886002019.373987</v>
       </c>
       <c r="E105" t="n">
-        <v>2.759824422581305</v>
+        <v>2.722902405703632</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1.316080249706642</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="B106" t="n">
-        <v>12.89811578568961</v>
+        <v>12.46597095737405</v>
       </c>
       <c r="C106" t="n">
-        <v>108981322.3585504</v>
+        <v>172986886.0536468</v>
       </c>
       <c r="D106" t="n">
-        <v>3886002019.373987</v>
+        <v>3745540306.616457</v>
       </c>
       <c r="E106" t="n">
-        <v>2.722902405703647</v>
+        <v>2.686220873404082</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-3.614555835463973</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="B107" t="n">
-        <v>12.46597095737405</v>
+        <v>12.48691773194146</v>
       </c>
       <c r="C107" t="n">
-        <v>172986886.0536468</v>
+        <v>168716801.018581</v>
       </c>
       <c r="D107" t="n">
-        <v>3745540306.616457</v>
+        <v>3874445887.453054</v>
       </c>
       <c r="E107" t="n">
-        <v>2.686220873404097</v>
+        <v>2.635969425270089</v>
+      </c>
+      <c r="F107" t="n">
+        <v>3.441575054175416</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="B108" t="n">
-        <v>12.48691773194146</v>
+        <v>13.1948187055833</v>
       </c>
       <c r="C108" t="n">
-        <v>168716801.018581</v>
+        <v>169403886.4004415</v>
       </c>
       <c r="D108" t="n">
-        <v>3874445887.453054</v>
+        <v>4085966651.761735</v>
       </c>
       <c r="E108" t="n">
-        <v>2.635969425270105</v>
+        <v>2.49242018090212</v>
+      </c>
+      <c r="F108" t="n">
+        <v>5.459381043200695</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44896</v>
+        <v>44897</v>
       </c>
       <c r="B109" t="n">
-        <v>13.1948187055833</v>
+        <v>12.88529882704409</v>
       </c>
       <c r="C109" t="n">
-        <v>169403886.4004415</v>
+        <v>154646776.1669033</v>
       </c>
       <c r="D109" t="n">
-        <v>4085966651.761735</v>
+        <v>3995896417.607926</v>
       </c>
       <c r="E109" t="n">
-        <v>2.492420180902138</v>
+        <v>2.371529802036451</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-2.204380060590394</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44897</v>
+        <v>44898</v>
       </c>
       <c r="B110" t="n">
-        <v>12.88529882704409</v>
+        <v>13.62705309187309</v>
       </c>
       <c r="C110" t="n">
-        <v>154646776.1669033</v>
+        <v>192551134.8691524</v>
       </c>
       <c r="D110" t="n">
-        <v>3995896417.607926</v>
+        <v>4213884191.370634</v>
       </c>
       <c r="E110" t="n">
-        <v>2.37152980203647</v>
+        <v>2.267560394005866</v>
+      </c>
+      <c r="F110" t="n">
+        <v>5.455290902990972</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44898</v>
+        <v>44899</v>
       </c>
       <c r="B111" t="n">
-        <v>13.62705309187309</v>
+        <v>13.4623213652987</v>
       </c>
       <c r="C111" t="n">
-        <v>192551134.8691524</v>
+        <v>196091265.4475874</v>
       </c>
       <c r="D111" t="n">
-        <v>4213884191.370634</v>
+        <v>4182200124.363754</v>
       </c>
       <c r="E111" t="n">
-        <v>2.267560394005887</v>
+        <v>2.141446304560307</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-0.7518969570109224</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44899</v>
+        <v>44900</v>
       </c>
       <c r="B112" t="n">
-        <v>13.4623213652987</v>
+        <v>13.94513771720273</v>
       </c>
       <c r="C112" t="n">
-        <v>196091265.4475874</v>
+        <v>152178623.0325742</v>
       </c>
       <c r="D112" t="n">
-        <v>4182200124.363754</v>
+        <v>4323744493.473274</v>
       </c>
       <c r="E112" t="n">
-        <v>2.141446304560329</v>
+        <v>1.876636280914093</v>
+      </c>
+      <c r="F112" t="n">
+        <v>3.384447537193203</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44900</v>
+        <v>44901</v>
       </c>
       <c r="B113" t="n">
-        <v>13.94513771720273</v>
+        <v>13.61033880308751</v>
       </c>
       <c r="C113" t="n">
-        <v>152178623.0325742</v>
+        <v>183478024.3753384</v>
       </c>
       <c r="D113" t="n">
-        <v>4323744493.473274</v>
+        <v>4225243184.006728</v>
       </c>
       <c r="E113" t="n">
-        <v>1.87663628091412</v>
+        <v>1.514297388916274</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-2.278148248936429</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44901</v>
+        <v>44902</v>
       </c>
       <c r="B114" t="n">
-        <v>13.61033880308751</v>
+        <v>13.66611135427207</v>
       </c>
       <c r="C114" t="n">
-        <v>183478024.3753384</v>
+        <v>120898655.2443827</v>
       </c>
       <c r="D114" t="n">
-        <v>4225243184.006728</v>
+        <v>4235257679.398825</v>
       </c>
       <c r="E114" t="n">
-        <v>1.514297388916308</v>
+        <v>1.217962821063228</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.237015834496912</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44902</v>
+        <v>44903</v>
       </c>
       <c r="B115" t="n">
-        <v>13.66611135427207</v>
+        <v>13.27732694537392</v>
       </c>
       <c r="C115" t="n">
-        <v>120898655.2443827</v>
+        <v>131643735.9936876</v>
       </c>
       <c r="D115" t="n">
-        <v>4235257679.398825</v>
+        <v>4126658073.549725</v>
       </c>
       <c r="E115" t="n">
-        <v>1.217962821063272</v>
+        <v>0.8393545402206389</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-2.564179421180224</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44903</v>
+        <v>44904</v>
       </c>
       <c r="B116" t="n">
-        <v>13.27732694537392</v>
+        <v>13.40786427494519</v>
       </c>
       <c r="C116" t="n">
-        <v>131643735.9936876</v>
+        <v>118836604.5878921</v>
       </c>
       <c r="D116" t="n">
-        <v>4126658073.549725</v>
+        <v>4163588078.258775</v>
       </c>
       <c r="E116" t="n">
-        <v>0.8393545402207058</v>
+        <v>0.6573796600210786</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.8949131246360542</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44904</v>
+        <v>44905</v>
       </c>
       <c r="B117" t="n">
-        <v>13.40786427494519</v>
+        <v>13.47915926912826</v>
       </c>
       <c r="C117" t="n">
-        <v>118836604.5878921</v>
+        <v>114488804.5289992</v>
       </c>
       <c r="D117" t="n">
-        <v>4163588078.258775</v>
+        <v>4187011560.464385</v>
       </c>
       <c r="E117" t="n">
-        <v>0.6573796600211652</v>
+        <v>0.6579212915022641</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.5625792409177377</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44905</v>
+        <v>44906</v>
       </c>
       <c r="B118" t="n">
-        <v>13.47915926912826</v>
+        <v>13.4754819425715</v>
       </c>
       <c r="C118" t="n">
-        <v>114488804.5289992</v>
+        <v>88955821.18684797</v>
       </c>
       <c r="D118" t="n">
-        <v>4187011560.464385</v>
+        <v>4183892219.70977</v>
       </c>
       <c r="E118" t="n">
-        <v>0.6579212915023501</v>
+        <v>0.506042777890496</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-0.07450040941058278</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44906</v>
+        <v>44907</v>
       </c>
       <c r="B119" t="n">
-        <v>13.4754819425715</v>
+        <v>12.97760496317501</v>
       </c>
       <c r="C119" t="n">
-        <v>88955821.18684797</v>
+        <v>97633658.88248602</v>
       </c>
       <c r="D119" t="n">
-        <v>4183892219.70977</v>
+        <v>4029904722.986873</v>
       </c>
       <c r="E119" t="n">
-        <v>0.5060427778906094</v>
+        <v>0.4673332934334439</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-3.680484310697163</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44907</v>
+        <v>44908</v>
       </c>
       <c r="B120" t="n">
-        <v>12.97760496317501</v>
+        <v>12.98891702001053</v>
       </c>
       <c r="C120" t="n">
-        <v>97633658.88248602</v>
+        <v>132581889.3388489</v>
       </c>
       <c r="D120" t="n">
-        <v>4029904722.986873</v>
+        <v>4037880871.360164</v>
       </c>
       <c r="E120" t="n">
-        <v>0.4673332934335677</v>
+        <v>0.4674492133622153</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.1979239937806687</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44908</v>
+        <v>44909</v>
       </c>
       <c r="B121" t="n">
-        <v>12.98891702001053</v>
+        <v>13.73588449791822</v>
       </c>
       <c r="C121" t="n">
-        <v>132581889.3388489</v>
+        <v>296179639.4872972</v>
       </c>
       <c r="D121" t="n">
-        <v>4037880871.360164</v>
+        <v>4268452915.226005</v>
       </c>
       <c r="E121" t="n">
-        <v>0.4674492133623393</v>
+        <v>0.4841821023220703</v>
+      </c>
+      <c r="F121" t="n">
+        <v>5.710224031155531</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44909</v>
+        <v>44910</v>
       </c>
       <c r="B122" t="n">
-        <v>13.73588449791822</v>
+        <v>13.73898258889534</v>
       </c>
       <c r="C122" t="n">
-        <v>296179639.4872972</v>
+        <v>210764002.5843447</v>
       </c>
       <c r="D122" t="n">
-        <v>4268452915.226005</v>
+        <v>4266387768.348901</v>
       </c>
       <c r="E122" t="n">
-        <v>0.4841821023221893</v>
+        <v>0.4994361079689702</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-0.04838162486781039</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44910</v>
+        <v>44911</v>
       </c>
       <c r="B123" t="n">
-        <v>13.73898258889534</v>
+        <v>13.13620906061934</v>
       </c>
       <c r="C123" t="n">
-        <v>210764002.5843447</v>
+        <v>146947782.1995693</v>
       </c>
       <c r="D123" t="n">
-        <v>4266387768.348901</v>
+        <v>4090349798.789669</v>
       </c>
       <c r="E123" t="n">
-        <v>0.4994361079690852</v>
+        <v>0.4935863900083126</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-4.126159625367554</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44911</v>
+        <v>44912</v>
       </c>
       <c r="B124" t="n">
-        <v>13.13620906061934</v>
+        <v>11.82219604792069</v>
       </c>
       <c r="C124" t="n">
-        <v>146947782.1995693</v>
+        <v>174165879.1498499</v>
       </c>
       <c r="D124" t="n">
-        <v>4090349798.789669</v>
+        <v>3670903537.959535</v>
       </c>
       <c r="E124" t="n">
-        <v>0.4935863900084292</v>
+        <v>0.5440250892541193</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-10.25453277747168</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44912</v>
+        <v>44913</v>
       </c>
       <c r="B125" t="n">
-        <v>11.82219604792069</v>
+        <v>11.97295952933083</v>
       </c>
       <c r="C125" t="n">
-        <v>174165879.1498499</v>
+        <v>112516834.3513321</v>
       </c>
       <c r="D125" t="n">
-        <v>3670903537.959535</v>
+        <v>3721813436.055252</v>
       </c>
       <c r="E125" t="n">
-        <v>0.544025089254226</v>
+        <v>0.5771928111788359</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1.386849247583744</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44913</v>
+        <v>44914</v>
       </c>
       <c r="B126" t="n">
-        <v>11.97295952933083</v>
+        <v>11.91969418436538</v>
       </c>
       <c r="C126" t="n">
-        <v>112516834.3513321</v>
+        <v>74269989.59870736</v>
       </c>
       <c r="D126" t="n">
-        <v>3721813436.055252</v>
+        <v>3721420775.122207</v>
       </c>
       <c r="E126" t="n">
-        <v>0.5771928111789371</v>
+        <v>0.6101451846143523</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-0.01055025835633439</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="B127" t="n">
-        <v>11.91969418436538</v>
+        <v>11.37312936421577</v>
       </c>
       <c r="C127" t="n">
-        <v>74269989.59870736</v>
+        <v>132000581.9366583</v>
       </c>
       <c r="D127" t="n">
-        <v>3721420775.122207</v>
+        <v>3546824607.876962</v>
       </c>
       <c r="E127" t="n">
-        <v>0.6101451846144484</v>
+        <v>0.6760449463849922</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-4.691653478489322</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="B128" t="n">
-        <v>11.37312936421577</v>
+        <v>11.97344329461941</v>
       </c>
       <c r="C128" t="n">
-        <v>132000581.9366583</v>
+        <v>133579919.078933</v>
       </c>
       <c r="D128" t="n">
-        <v>3546824607.876962</v>
+        <v>3726307944.598447</v>
       </c>
       <c r="E128" t="n">
-        <v>0.6760449463850796</v>
+        <v>0.6865167079042546</v>
+      </c>
+      <c r="F128" t="n">
+        <v>5.060395045271759</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44916</v>
+        <v>44917</v>
       </c>
       <c r="B129" t="n">
-        <v>11.97344329461941</v>
+        <v>11.69166756689297</v>
       </c>
       <c r="C129" t="n">
-        <v>133579919.078933</v>
+        <v>92903402.24103315</v>
       </c>
       <c r="D129" t="n">
-        <v>3726307944.598447</v>
+        <v>3634758186.991903</v>
       </c>
       <c r="E129" t="n">
-        <v>0.6865167079043407</v>
+        <v>0.6958765451339142</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-2.456848949890245</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44917</v>
+        <v>44918</v>
       </c>
       <c r="B130" t="n">
-        <v>11.69166756689297</v>
+        <v>11.85102120996602</v>
       </c>
       <c r="C130" t="n">
-        <v>92903402.24103315</v>
+        <v>90799000.6418826</v>
       </c>
       <c r="D130" t="n">
-        <v>3634758186.991903</v>
+        <v>3683192416.383854</v>
       </c>
       <c r="E130" t="n">
-        <v>0.6958765451339991</v>
+        <v>0.713914767778726</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1.332529618209199</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44918</v>
+        <v>44919</v>
       </c>
       <c r="B131" t="n">
-        <v>11.85102120996602</v>
+        <v>11.79023165985046</v>
       </c>
       <c r="C131" t="n">
-        <v>90799000.6418826</v>
+        <v>91479536.53760596</v>
       </c>
       <c r="D131" t="n">
-        <v>3683192416.383854</v>
+        <v>3664402004.577654</v>
       </c>
       <c r="E131" t="n">
-        <v>0.713914767778809</v>
+        <v>0.7408849367526691</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-0.5101664448106225</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44919</v>
+        <v>44920</v>
       </c>
       <c r="B132" t="n">
-        <v>11.79023165985046</v>
+        <v>11.68773323633805</v>
       </c>
       <c r="C132" t="n">
-        <v>91479536.53760596</v>
+        <v>47658674.84870259</v>
       </c>
       <c r="D132" t="n">
-        <v>3664402004.577654</v>
+        <v>3638240221.265226</v>
       </c>
       <c r="E132" t="n">
-        <v>0.7408849367527495</v>
+        <v>0.7701062498494702</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-0.7139441382180811</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44920</v>
+        <v>44921</v>
       </c>
       <c r="B133" t="n">
-        <v>11.68773323633805</v>
+        <v>11.68846545243489</v>
       </c>
       <c r="C133" t="n">
-        <v>47658674.84870259</v>
+        <v>88287161.53716661</v>
       </c>
       <c r="D133" t="n">
-        <v>3638240221.265226</v>
+        <v>3636230952.5544</v>
       </c>
       <c r="E133" t="n">
-        <v>0.770106249849548</v>
+        <v>0.7965230750846224</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-0.0552263893703997</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44921</v>
+        <v>44922</v>
       </c>
       <c r="B134" t="n">
-        <v>11.68846545243489</v>
+        <v>11.69971750214909</v>
       </c>
       <c r="C134" t="n">
-        <v>88287161.53716661</v>
+        <v>99615727.11470342</v>
       </c>
       <c r="D134" t="n">
-        <v>3636230952.5544</v>
+        <v>3648145324.656997</v>
       </c>
       <c r="E134" t="n">
-        <v>0.7965230750846981</v>
+        <v>0.8199896332976768</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.3276571883924717</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44922</v>
+        <v>44923</v>
       </c>
       <c r="B135" t="n">
-        <v>11.69971750214909</v>
+        <v>11.64752360119524</v>
       </c>
       <c r="C135" t="n">
-        <v>99615727.11470342</v>
+        <v>109734141.9509599</v>
       </c>
       <c r="D135" t="n">
-        <v>3648145324.656997</v>
+        <v>3627297800.710344</v>
       </c>
       <c r="E135" t="n">
-        <v>0.8199896332977509</v>
+        <v>0.8426753136648991</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-0.5714554134055194</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44923</v>
+        <v>44924</v>
       </c>
       <c r="B136" t="n">
-        <v>11.64752360119524</v>
+        <v>11.19775765831832</v>
       </c>
       <c r="C136" t="n">
-        <v>109734141.9509599</v>
+        <v>115264805.6256468</v>
       </c>
       <c r="D136" t="n">
-        <v>3627297800.710344</v>
+        <v>3489305478.995729</v>
       </c>
       <c r="E136" t="n">
-        <v>0.8426753136649716</v>
+        <v>0.8850126580314721</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-3.80427329919234</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44924</v>
+        <v>44925</v>
       </c>
       <c r="B137" t="n">
-        <v>11.19775765831832</v>
+        <v>10.98932021883577</v>
       </c>
       <c r="C137" t="n">
-        <v>115264805.6256468</v>
+        <v>109623480.7481134</v>
       </c>
       <c r="D137" t="n">
-        <v>3489305478.995729</v>
+        <v>3424420442.398918</v>
       </c>
       <c r="E137" t="n">
-        <v>0.8850126580315418</v>
+        <v>0.9351707831039391</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-1.859540157415107</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44925</v>
+        <v>44926</v>
       </c>
       <c r="B138" t="n">
-        <v>10.98932021883577</v>
+        <v>10.87044732534033</v>
       </c>
       <c r="C138" t="n">
-        <v>109623480.7481134</v>
+        <v>124016277.5545012</v>
       </c>
       <c r="D138" t="n">
-        <v>3424420442.398918</v>
+        <v>3389683622.23033</v>
       </c>
       <c r="E138" t="n">
-        <v>0.9351707831040056</v>
+        <v>0.9791941906415262</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-1.014385375653626</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44926</v>
+        <v>44927</v>
       </c>
       <c r="B139" t="n">
-        <v>10.87044732534033</v>
+        <v>10.88963361941692</v>
       </c>
       <c r="C139" t="n">
-        <v>124016277.5545012</v>
+        <v>82784272.16585313</v>
       </c>
       <c r="D139" t="n">
-        <v>3389683622.23033</v>
+        <v>3391585733.120893</v>
       </c>
       <c r="E139" t="n">
-        <v>0.9791941906415906</v>
+        <v>1.020416554504951</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.0561147028025788</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44927</v>
+        <v>44928</v>
       </c>
       <c r="B140" t="n">
-        <v>10.88963361941692</v>
+        <v>10.862361279595</v>
       </c>
       <c r="C140" t="n">
-        <v>82784272.16585313</v>
+        <v>96189344.64984266</v>
       </c>
       <c r="D140" t="n">
-        <v>3391585733.120893</v>
+        <v>3382540324.733008</v>
       </c>
       <c r="E140" t="n">
-        <v>1.020416554505013</v>
+        <v>1.035471070739632</v>
+      </c>
+      <c r="F140" t="n">
+        <v>-0.2667014517590216</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44928</v>
+        <v>44929</v>
       </c>
       <c r="B141" t="n">
-        <v>10.862361279595</v>
+        <v>11.15329907400637</v>
       </c>
       <c r="C141" t="n">
-        <v>96189344.64984266</v>
+        <v>125576880.9802125</v>
       </c>
       <c r="D141" t="n">
-        <v>3382540324.733008</v>
+        <v>3476073022.817355</v>
       </c>
       <c r="E141" t="n">
-        <v>1.035471070739695</v>
+        <v>1.036597786623779</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2.76516136113556</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44929</v>
+        <v>44930</v>
       </c>
       <c r="B142" t="n">
-        <v>11.15329907400637</v>
+        <v>11.3850082612538</v>
       </c>
       <c r="C142" t="n">
-        <v>125576880.9802125</v>
+        <v>151836124.759505</v>
       </c>
       <c r="D142" t="n">
-        <v>3476073022.817355</v>
+        <v>3545486017.874979</v>
       </c>
       <c r="E142" t="n">
-        <v>1.036597786623843</v>
+        <v>0.9998582926661015</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1.99687965707247</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44930</v>
+        <v>44931</v>
       </c>
       <c r="B143" t="n">
-        <v>11.3850082612538</v>
+        <v>12.08260620030208</v>
       </c>
       <c r="C143" t="n">
-        <v>151836124.759505</v>
+        <v>197921996.0977871</v>
       </c>
       <c r="D143" t="n">
-        <v>3545486017.874979</v>
+        <v>3765128419.319547</v>
       </c>
       <c r="E143" t="n">
-        <v>0.9998582926661682</v>
+        <v>0.963731659075355</v>
+      </c>
+      <c r="F143" t="n">
+        <v>6.194987100138483</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44931</v>
+        <v>44932</v>
       </c>
       <c r="B144" t="n">
-        <v>12.08260620030208</v>
+        <v>11.74568496014289</v>
       </c>
       <c r="C144" t="n">
-        <v>197921996.0977871</v>
+        <v>137452287.0730853</v>
       </c>
       <c r="D144" t="n">
-        <v>3765128419.319547</v>
+        <v>3659678356.951164</v>
       </c>
       <c r="E144" t="n">
-        <v>0.9637316590754249</v>
+        <v>0.9222870401600761</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-2.800702940895705</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44932</v>
+        <v>44933</v>
       </c>
       <c r="B145" t="n">
-        <v>11.74568496014289</v>
+        <v>11.78493700169217</v>
       </c>
       <c r="C145" t="n">
-        <v>137452287.0730853</v>
+        <v>131492897.0423619</v>
       </c>
       <c r="D145" t="n">
-        <v>3659678356.951164</v>
+        <v>3668307155.294156</v>
       </c>
       <c r="E145" t="n">
-        <v>0.92228704016015</v>
+        <v>0.8955463422264224</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.2357802380802632</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44933</v>
+        <v>44934</v>
       </c>
       <c r="B146" t="n">
-        <v>11.78493700169217</v>
+        <v>11.74720607400496</v>
       </c>
       <c r="C146" t="n">
-        <v>131492897.0423619</v>
+        <v>98911144.73651139</v>
       </c>
       <c r="D146" t="n">
-        <v>3668307155.294156</v>
+        <v>3655453427.999022</v>
       </c>
       <c r="E146" t="n">
-        <v>0.8955463422264992</v>
+        <v>0.8582419612179601</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-0.3503994281553791</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44934</v>
+        <v>44935</v>
       </c>
       <c r="B147" t="n">
-        <v>11.74720607400496</v>
+        <v>12.02626044454169</v>
       </c>
       <c r="C147" t="n">
-        <v>98911144.73651139</v>
+        <v>121413520.8246683</v>
       </c>
       <c r="D147" t="n">
-        <v>3655453427.999022</v>
+        <v>3746863365.504102</v>
       </c>
       <c r="E147" t="n">
-        <v>0.8582419612180411</v>
+        <v>0.810301257222653</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2.500645660123135</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="B148" t="n">
-        <v>12.02626044454169</v>
+        <v>12.21138412102369</v>
       </c>
       <c r="C148" t="n">
-        <v>121413520.8246683</v>
+        <v>265696244.5202374</v>
       </c>
       <c r="D148" t="n">
-        <v>3746863365.504102</v>
+        <v>3808286229.895507</v>
       </c>
       <c r="E148" t="n">
-        <v>0.8103012572227395</v>
+        <v>0.7583763806219179</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1.639314231655753</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="B149" t="n">
-        <v>12.21138412102369</v>
+        <v>12.72932116064913</v>
       </c>
       <c r="C149" t="n">
-        <v>265696244.5202374</v>
+        <v>218860677.257918</v>
       </c>
       <c r="D149" t="n">
-        <v>3808286229.895507</v>
+        <v>3966033558.653266</v>
       </c>
       <c r="E149" t="n">
-        <v>0.7583763806220111</v>
+        <v>0.7473506332206906</v>
+      </c>
+      <c r="F149" t="n">
+        <v>4.142213038490206</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="B150" t="n">
-        <v>12.72932116064913</v>
+        <v>15.92176476995798</v>
       </c>
       <c r="C150" t="n">
-        <v>218860677.257918</v>
+        <v>847875709.0144932</v>
       </c>
       <c r="D150" t="n">
-        <v>3966033558.653266</v>
+        <v>4974436072.034175</v>
       </c>
       <c r="E150" t="n">
-        <v>0.7473506332207851</v>
+        <v>1.034212506810514</v>
+      </c>
+      <c r="F150" t="n">
+        <v>25.42597026645759</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44938</v>
+        <v>44939</v>
       </c>
       <c r="B151" t="n">
-        <v>15.92176476995798</v>
+        <v>15.41559741585082</v>
       </c>
       <c r="C151" t="n">
-        <v>847875709.0144932</v>
+        <v>815723336.1327412</v>
       </c>
       <c r="D151" t="n">
-        <v>4974436072.034175</v>
+        <v>4803970850.679898</v>
       </c>
       <c r="E151" t="n">
-        <v>1.034212506810581</v>
+        <v>1.169331144286875</v>
+      </c>
+      <c r="F151" t="n">
+        <v>-3.426825048825466</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44939</v>
+        <v>44940</v>
       </c>
       <c r="B152" t="n">
-        <v>15.41559741585082</v>
+        <v>15.95388985210411</v>
       </c>
       <c r="C152" t="n">
-        <v>815723336.1327412</v>
+        <v>627559332.8619415</v>
       </c>
       <c r="D152" t="n">
-        <v>4803970850.679898</v>
+        <v>4970302679.39047</v>
       </c>
       <c r="E152" t="n">
-        <v>1.169331144286934</v>
+        <v>1.338422897881127</v>
+      </c>
+      <c r="F152" t="n">
+        <v>3.4623821392886</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44940</v>
+        <v>44941</v>
       </c>
       <c r="B153" t="n">
-        <v>15.95388985210411</v>
+        <v>17.00331760611695</v>
       </c>
       <c r="C153" t="n">
-        <v>627559332.8619415</v>
+        <v>1151506776.335918</v>
       </c>
       <c r="D153" t="n">
-        <v>4970302679.39047</v>
+        <v>5299944903.101496</v>
       </c>
       <c r="E153" t="n">
-        <v>1.338422897881178</v>
+        <v>1.601328874255832</v>
+      </c>
+      <c r="F153" t="n">
+        <v>6.632236404392411</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44941</v>
+        <v>44942</v>
       </c>
       <c r="B154" t="n">
-        <v>17.00331760611695</v>
+        <v>16.77023542506331</v>
       </c>
       <c r="C154" t="n">
-        <v>1151506776.335918</v>
+        <v>562834734.7190589</v>
       </c>
       <c r="D154" t="n">
-        <v>5299944903.101496</v>
+        <v>5223605334.729731</v>
       </c>
       <c r="E154" t="n">
-        <v>1.601328874255874</v>
+        <v>1.799739679365671</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-1.440384188278854</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="B155" t="n">
-        <v>16.77023542506331</v>
+        <v>16.7378601813918</v>
       </c>
       <c r="C155" t="n">
-        <v>562834734.7190589</v>
+        <v>456910036.54334</v>
       </c>
       <c r="D155" t="n">
-        <v>5223605334.729731</v>
+        <v>5209996555.933686</v>
       </c>
       <c r="E155" t="n">
-        <v>1.799739679365707</v>
+        <v>1.963453746734495</v>
+      </c>
+      <c r="F155" t="n">
+        <v>-0.2605246362232805</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44943</v>
+        <v>44944</v>
       </c>
       <c r="B156" t="n">
-        <v>16.7378601813918</v>
+        <v>17.15507787448216</v>
       </c>
       <c r="C156" t="n">
-        <v>456910036.54334</v>
+        <v>557498710.4252546</v>
       </c>
       <c r="D156" t="n">
-        <v>5209996555.933686</v>
+        <v>5332165066.185405</v>
       </c>
       <c r="E156" t="n">
-        <v>1.963453746734528</v>
+        <v>2.130163456392272</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2.344886583707639</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44944</v>
+        <v>44945</v>
       </c>
       <c r="B157" t="n">
-        <v>17.15507787448216</v>
+        <v>15.82054089783735</v>
       </c>
       <c r="C157" t="n">
-        <v>557498710.4252546</v>
+        <v>458948827.2376975</v>
       </c>
       <c r="D157" t="n">
-        <v>5332165066.185405</v>
+        <v>4926943558.136978</v>
       </c>
       <c r="E157" t="n">
-        <v>2.130163456392301</v>
+        <v>2.186171500760902</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-7.599567961955822</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="B158" t="n">
-        <v>15.82054089783735</v>
+        <v>16.20244997478999</v>
       </c>
       <c r="C158" t="n">
-        <v>458948827.2376975</v>
+        <v>279132568.8951501</v>
       </c>
       <c r="D158" t="n">
-        <v>4926943558.136978</v>
+        <v>5094714191.640909</v>
       </c>
       <c r="E158" t="n">
-        <v>2.18617150076093</v>
+        <v>2.260593595010561</v>
+      </c>
+      <c r="F158" t="n">
+        <v>3.405166540356519</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44946</v>
+        <v>44947</v>
       </c>
       <c r="B159" t="n">
-        <v>16.20244997478999</v>
+        <v>17.51533845635289</v>
       </c>
       <c r="C159" t="n">
-        <v>279132568.8951501</v>
+        <v>376654129.5671129</v>
       </c>
       <c r="D159" t="n">
-        <v>5094714191.640909</v>
+        <v>5502958563.030089</v>
       </c>
       <c r="E159" t="n">
-        <v>2.260593595010588</v>
+        <v>2.388678082001385</v>
+      </c>
+      <c r="F159" t="n">
+        <v>8.013096633742522</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44947</v>
+        <v>44948</v>
       </c>
       <c r="B160" t="n">
-        <v>17.51533845635289</v>
+        <v>16.89195623249759</v>
       </c>
       <c r="C160" t="n">
-        <v>376654129.5671129</v>
+        <v>454676279.4633334</v>
       </c>
       <c r="D160" t="n">
-        <v>5502958563.030089</v>
+        <v>5313512775.330462</v>
       </c>
       <c r="E160" t="n">
-        <v>2.388678082001409</v>
+        <v>2.465285479429816</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-3.442617012825799</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>44948</v>
+        <v>44949</v>
       </c>
       <c r="B161" t="n">
-        <v>16.89195623249759</v>
+        <v>17.38618269122672</v>
       </c>
       <c r="C161" t="n">
-        <v>454676279.4633334</v>
+        <v>513539507.4599049</v>
       </c>
       <c r="D161" t="n">
-        <v>5313512775.330462</v>
+        <v>5464554616.861907</v>
       </c>
       <c r="E161" t="n">
-        <v>2.465285479429839</v>
+        <v>2.550616229015168</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2.842598633293991</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>44949</v>
+        <v>44950</v>
       </c>
       <c r="B162" t="n">
-        <v>17.38618269122672</v>
+        <v>18.05475625280128</v>
       </c>
       <c r="C162" t="n">
-        <v>513539507.4599049</v>
+        <v>429873081.1548395</v>
       </c>
       <c r="D162" t="n">
-        <v>5464554616.861907</v>
+        <v>5669227518.330983</v>
       </c>
       <c r="E162" t="n">
-        <v>2.55061622901519</v>
+        <v>2.651294594143408</v>
+      </c>
+      <c r="F162" t="n">
+        <v>3.745463552281447</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>44950</v>
+        <v>44951</v>
       </c>
       <c r="B163" t="n">
-        <v>18.05475625280128</v>
+        <v>16.9997685708212</v>
       </c>
       <c r="C163" t="n">
-        <v>429873081.1548395</v>
+        <v>462055051.4020905</v>
       </c>
       <c r="D163" t="n">
-        <v>5669227518.330983</v>
+        <v>5346951834.189</v>
       </c>
       <c r="E163" t="n">
-        <v>2.651294594143429</v>
+        <v>2.683628860288667</v>
+      </c>
+      <c r="F163" t="n">
+        <v>-5.684648977306539</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>44951</v>
+        <v>44952</v>
       </c>
       <c r="B164" t="n">
-        <v>16.9997685708212</v>
+        <v>17.84486073788483</v>
       </c>
       <c r="C164" t="n">
-        <v>462055051.4020905</v>
+        <v>379815279.6904674</v>
       </c>
       <c r="D164" t="n">
-        <v>5346951834.189</v>
+        <v>5605193457.193686</v>
       </c>
       <c r="E164" t="n">
-        <v>2.683628860288687</v>
+        <v>2.738975274365199</v>
+      </c>
+      <c r="F164" t="n">
+        <v>4.829697947781408</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>44952</v>
+        <v>44953</v>
       </c>
       <c r="B165" t="n">
-        <v>17.84486073788483</v>
+        <v>18.11211224987073</v>
       </c>
       <c r="C165" t="n">
-        <v>379815279.6904674</v>
+        <v>471466283.87814</v>
       </c>
       <c r="D165" t="n">
-        <v>5605193457.193686</v>
+        <v>5715965534.964968</v>
       </c>
       <c r="E165" t="n">
-        <v>2.738975274365217</v>
+        <v>2.787821939623577</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1.97624004625776</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>44953</v>
+        <v>44954</v>
       </c>
       <c r="B166" t="n">
-        <v>18.11211224987073</v>
+        <v>21.42886713268113</v>
       </c>
       <c r="C166" t="n">
-        <v>471466283.87814</v>
+        <v>727151960.5907713</v>
       </c>
       <c r="D166" t="n">
-        <v>5715965534.964968</v>
+        <v>6777191091.448918</v>
       </c>
       <c r="E166" t="n">
-        <v>2.787821939623594</v>
+        <v>3.002388103599845</v>
+      </c>
+      <c r="F166" t="n">
+        <v>18.56598942020133</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>44954</v>
+        <v>44955</v>
       </c>
       <c r="B167" t="n">
-        <v>21.42886713268113</v>
+        <v>20.56093228938241</v>
       </c>
       <c r="C167" t="n">
-        <v>727151960.5907713</v>
+        <v>666534749.4665389</v>
       </c>
       <c r="D167" t="n">
-        <v>6777191091.448918</v>
+        <v>6478003325.771747</v>
       </c>
       <c r="E167" t="n">
-        <v>3.00238810359986</v>
+        <v>3.098952102790009</v>
+      </c>
+      <c r="F167" t="n">
+        <v>-4.414627854520292</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>44955</v>
+        <v>44956</v>
       </c>
       <c r="B168" t="n">
-        <v>20.56093228938241</v>
+        <v>21.11906025752084</v>
       </c>
       <c r="C168" t="n">
-        <v>666534749.4665389</v>
+        <v>447331040.7367727</v>
       </c>
       <c r="D168" t="n">
-        <v>6478003325.771747</v>
+        <v>6631340907.713534</v>
       </c>
       <c r="E168" t="n">
-        <v>3.098952102790023</v>
+        <v>3.186863091897743</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2.367050065129761</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>44956</v>
+        <v>44957</v>
       </c>
       <c r="B169" t="n">
-        <v>21.11906025752084</v>
+        <v>19.74019533532297</v>
       </c>
       <c r="C169" t="n">
-        <v>447331040.7367727</v>
+        <v>706354036.4393945</v>
       </c>
       <c r="D169" t="n">
-        <v>6631340907.713534</v>
+        <v>6200969690.936059</v>
       </c>
       <c r="E169" t="n">
-        <v>3.186863091897756</v>
+        <v>3.166077646264513</v>
+      </c>
+      <c r="F169" t="n">
+        <v>-6.489957653615274</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>44957</v>
+        <v>44958</v>
       </c>
       <c r="B170" t="n">
-        <v>19.74019533532297</v>
+        <v>19.86147436001695</v>
       </c>
       <c r="C170" t="n">
-        <v>706354036.4393945</v>
+        <v>411327605.7684342</v>
       </c>
       <c r="D170" t="n">
-        <v>6200969690.936059</v>
+        <v>6242904985.964764</v>
       </c>
       <c r="E170" t="n">
-        <v>3.166077646264524</v>
+        <v>3.119987275866158</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.6762699564553776</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>44958</v>
+        <v>44959</v>
       </c>
       <c r="B171" t="n">
-        <v>19.86147436001695</v>
+        <v>20.97086923036958</v>
       </c>
       <c r="C171" t="n">
-        <v>411327605.7684342</v>
+        <v>626010002.870374</v>
       </c>
       <c r="D171" t="n">
-        <v>6242904985.964764</v>
+        <v>6583907814.298697</v>
       </c>
       <c r="E171" t="n">
-        <v>3.119987275866169</v>
+        <v>3.111264933520997</v>
+      </c>
+      <c r="F171" t="n">
+        <v>5.462246007276605</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>44959</v>
+        <v>44960</v>
       </c>
       <c r="B172" t="n">
-        <v>20.97086923036958</v>
+        <v>21.2272590021901</v>
       </c>
       <c r="C172" t="n">
-        <v>626010002.870374</v>
+        <v>883123005.5921111</v>
       </c>
       <c r="D172" t="n">
-        <v>6583907814.298697</v>
+        <v>6698431190.6067</v>
       </c>
       <c r="E172" t="n">
-        <v>3.111264933521006</v>
+        <v>3.09333580957918</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1.739443800523532</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>44960</v>
+        <v>44961</v>
       </c>
       <c r="B173" t="n">
-        <v>21.2272590021901</v>
+        <v>21.37304283267965</v>
       </c>
       <c r="C173" t="n">
-        <v>883123005.5921111</v>
+        <v>470961187.3108347</v>
       </c>
       <c r="D173" t="n">
-        <v>6698431190.6067</v>
+        <v>6735616188.506873</v>
       </c>
       <c r="E173" t="n">
-        <v>3.093335809579189</v>
+        <v>3.087004126976844</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.5551299527017273</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>44961</v>
+        <v>44962</v>
       </c>
       <c r="B174" t="n">
-        <v>21.37304283267965</v>
+        <v>21.03662549223646</v>
       </c>
       <c r="C174" t="n">
-        <v>470961187.3108347</v>
+        <v>272119468.1525165</v>
       </c>
       <c r="D174" t="n">
-        <v>6735616188.506873</v>
+        <v>6640847874.475571</v>
       </c>
       <c r="E174" t="n">
-        <v>3.087004126976852</v>
+        <v>3.012690328273632</v>
+      </c>
+      <c r="F174" t="n">
+        <v>-1.406973191153726</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>44962</v>
+        <v>44963</v>
       </c>
       <c r="B175" t="n">
-        <v>21.03662549223646</v>
+        <v>20.11815355350425</v>
       </c>
       <c r="C175" t="n">
-        <v>272119468.1525165</v>
+        <v>363771172.8606701</v>
       </c>
       <c r="D175" t="n">
-        <v>6640847874.475571</v>
+        <v>6346720801.606512</v>
       </c>
       <c r="E175" t="n">
-        <v>3.01269032827364</v>
+        <v>2.871981938072739</v>
+      </c>
+      <c r="F175" t="n">
+        <v>-4.429059036264793</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>44963</v>
+        <v>44964</v>
       </c>
       <c r="B176" t="n">
-        <v>20.11815355350425</v>
+        <v>19.62010633292644</v>
       </c>
       <c r="C176" t="n">
-        <v>363771172.8606701</v>
+        <v>223677535.4626522</v>
       </c>
       <c r="D176" t="n">
-        <v>6346720801.606512</v>
+        <v>6172268492.042657</v>
       </c>
       <c r="E176" t="n">
-        <v>2.871981938072746</v>
+        <v>2.678411757738443</v>
+      </c>
+      <c r="F176" t="n">
+        <v>-2.748699919487507</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="B177" t="n">
-        <v>19.62010633292644</v>
+        <v>20.89010346052759</v>
       </c>
       <c r="C177" t="n">
-        <v>223677535.4626522</v>
+        <v>321533310.8116084</v>
       </c>
       <c r="D177" t="n">
-        <v>6172268492.042657</v>
+        <v>6583374862.59913</v>
       </c>
       <c r="E177" t="n">
-        <v>2.67841175773845</v>
+        <v>2.503440778038159</v>
+      </c>
+      <c r="F177" t="n">
+        <v>6.660539331470661</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>44965</v>
+        <v>44966</v>
       </c>
       <c r="B178" t="n">
-        <v>20.89010346052759</v>
+        <v>20.10008417813964</v>
       </c>
       <c r="C178" t="n">
-        <v>321533310.8116084</v>
+        <v>263277828.3972493</v>
       </c>
       <c r="D178" t="n">
-        <v>6583374862.59913</v>
+        <v>6332233559.820704</v>
       </c>
       <c r="E178" t="n">
-        <v>2.503440778038166</v>
+        <v>2.268003289437039</v>
+      </c>
+      <c r="F178" t="n">
+        <v>-3.814780534603712</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="B179" t="n">
-        <v>20.10008417813964</v>
+        <v>17.86249598956951</v>
       </c>
       <c r="C179" t="n">
-        <v>263277828.3972493</v>
+        <v>386847735.7918981</v>
       </c>
       <c r="D179" t="n">
-        <v>6332233559.820704</v>
+        <v>5625803516.652185</v>
       </c>
       <c r="E179" t="n">
-        <v>2.268003289437046</v>
+        <v>2.007893836838794</v>
+      </c>
+      <c r="F179" t="n">
+        <v>-11.15609581508427</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>44967</v>
+        <v>44968</v>
       </c>
       <c r="B180" t="n">
-        <v>17.86249598956951</v>
+        <v>17.80715104198146</v>
       </c>
       <c r="C180" t="n">
-        <v>386847735.7918981</v>
+        <v>231240951.4046947</v>
       </c>
       <c r="D180" t="n">
-        <v>5625803516.652185</v>
+        <v>5616344029.949454</v>
       </c>
       <c r="E180" t="n">
-        <v>2.007893836838801</v>
+        <v>1.952402516375115</v>
+      </c>
+      <c r="F180" t="n">
+        <v>-0.16814463346847</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>44968</v>
+        <v>44969</v>
       </c>
       <c r="B181" t="n">
-        <v>17.80715104198146</v>
+        <v>18.04544548540047</v>
       </c>
       <c r="C181" t="n">
-        <v>231240951.4046947</v>
+        <v>137058769.0161748</v>
       </c>
       <c r="D181" t="n">
-        <v>5616344029.949454</v>
+        <v>5683542363.894083</v>
       </c>
       <c r="E181" t="n">
-        <v>1.952402516375122</v>
+        <v>1.862095019221422</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1.196478235419529</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>44969</v>
+        <v>44970</v>
       </c>
       <c r="B182" t="n">
-        <v>18.04544548540047</v>
+        <v>17.7285265000472</v>
       </c>
       <c r="C182" t="n">
-        <v>137058769.0161748</v>
+        <v>278240658.6724938</v>
       </c>
       <c r="D182" t="n">
-        <v>5683542363.894083</v>
+        <v>5593532523.235147</v>
       </c>
       <c r="E182" t="n">
-        <v>1.862095019221429</v>
+        <v>1.799862436629609</v>
+      </c>
+      <c r="F182" t="n">
+        <v>-1.583692614499421</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>44970</v>
+        <v>44971</v>
       </c>
       <c r="B183" t="n">
-        <v>17.7285265000472</v>
+        <v>17.63439545925806</v>
       </c>
       <c r="C183" t="n">
-        <v>278240658.6724938</v>
+        <v>239007064.7303942</v>
       </c>
       <c r="D183" t="n">
-        <v>5593532523.235147</v>
+        <v>5556547102.24275</v>
       </c>
       <c r="E183" t="n">
-        <v>1.799862436629616</v>
+        <v>1.782556388462479</v>
+      </c>
+      <c r="F183" t="n">
+        <v>-0.6612175908294327</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="B184" t="n">
-        <v>17.63439545925806</v>
+        <v>18.17250375813213</v>
       </c>
       <c r="C184" t="n">
-        <v>239007064.7303942</v>
+        <v>242454605.7083901</v>
       </c>
       <c r="D184" t="n">
-        <v>5556547102.24275</v>
+        <v>5728373612.014671</v>
       </c>
       <c r="E184" t="n">
-        <v>1.782556388462486</v>
+        <v>1.746773997538693</v>
+      </c>
+      <c r="F184" t="n">
+        <v>3.092325262618001</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="B185" t="n">
-        <v>18.17250375813213</v>
+        <v>19.8827374878035</v>
       </c>
       <c r="C185" t="n">
-        <v>242454605.7083901</v>
+        <v>271716406.1123076</v>
       </c>
       <c r="D185" t="n">
-        <v>5728373612.014671</v>
+        <v>6245581165.072944</v>
       </c>
       <c r="E185" t="n">
-        <v>1.7467739975387</v>
+        <v>1.71274907452585</v>
+      </c>
+      <c r="F185" t="n">
+        <v>9.028872557709633</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>44973</v>
+        <v>44974</v>
       </c>
       <c r="B186" t="n">
-        <v>19.8827374878035</v>
+        <v>18.68110396371471</v>
       </c>
       <c r="C186" t="n">
-        <v>271716406.1123076</v>
+        <v>356447588.1769097</v>
       </c>
       <c r="D186" t="n">
-        <v>6245581165.072944</v>
+        <v>5888014528.274008</v>
       </c>
       <c r="E186" t="n">
-        <v>1.712749074525856</v>
+        <v>1.681345101747482</v>
+      </c>
+      <c r="F186" t="n">
+        <v>-5.72511392212065</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>44974</v>
+        <v>44975</v>
       </c>
       <c r="B187" t="n">
-        <v>18.68110396371471</v>
+        <v>19.52678498268642</v>
       </c>
       <c r="C187" t="n">
-        <v>356447588.1769097</v>
+        <v>238127583.5569378</v>
       </c>
       <c r="D187" t="n">
-        <v>5888014528.274008</v>
+        <v>6149757520.816559</v>
       </c>
       <c r="E187" t="n">
-        <v>1.681345101747488</v>
+        <v>1.575844467640316</v>
+      </c>
+      <c r="F187" t="n">
+        <v>4.445352355801302</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>44975</v>
+        <v>44976</v>
       </c>
       <c r="B188" t="n">
-        <v>19.52678498268642</v>
+        <v>19.5989356226445</v>
       </c>
       <c r="C188" t="n">
-        <v>238127583.5569378</v>
+        <v>261651157.4119107</v>
       </c>
       <c r="D188" t="n">
-        <v>6149757520.816559</v>
+        <v>6178739135.071754</v>
       </c>
       <c r="E188" t="n">
-        <v>1.575844467640322</v>
+        <v>1.481155246971388</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.4712643410263562</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>44976</v>
+        <v>44977</v>
       </c>
       <c r="B189" t="n">
-        <v>19.5989356226445</v>
+        <v>19.80707266632469</v>
       </c>
       <c r="C189" t="n">
-        <v>261651157.4119107</v>
+        <v>286403310.9593916</v>
       </c>
       <c r="D189" t="n">
-        <v>6178739135.071754</v>
+        <v>6273470718.9988</v>
       </c>
       <c r="E189" t="n">
-        <v>1.481155246971395</v>
+        <v>1.450421989349852</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1.533186332294423</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>44977</v>
+        <v>44978</v>
       </c>
       <c r="B190" t="n">
-        <v>19.80707266632469</v>
+        <v>20.78875149248678</v>
       </c>
       <c r="C190" t="n">
-        <v>286403310.9593916</v>
+        <v>498847262.8579535</v>
       </c>
       <c r="D190" t="n">
-        <v>6273470718.9988</v>
+        <v>6559040318.778994</v>
       </c>
       <c r="E190" t="n">
-        <v>1.450421989349858</v>
+        <v>1.403906021065865</v>
+      </c>
+      <c r="F190" t="n">
+        <v>4.552019329832269</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="B191" t="n">
-        <v>20.78875149248678</v>
+        <v>20.90594997298044</v>
       </c>
       <c r="C191" t="n">
-        <v>498847262.8579535</v>
+        <v>519766653.0088823</v>
       </c>
       <c r="D191" t="n">
-        <v>6559040318.778994</v>
+        <v>6583479415.038193</v>
       </c>
       <c r="E191" t="n">
-        <v>1.403906021065872</v>
+        <v>1.376673736538023</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.3726017080460498</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>44979</v>
+        <v>44980</v>
       </c>
       <c r="B192" t="n">
-        <v>20.90594997298044</v>
+        <v>20.27432060017458</v>
       </c>
       <c r="C192" t="n">
-        <v>519766653.0088823</v>
+        <v>641835791.2932897</v>
       </c>
       <c r="D192" t="n">
-        <v>6583479415.038193</v>
+        <v>6396173987.057156</v>
       </c>
       <c r="E192" t="n">
-        <v>1.376673736538029</v>
+        <v>1.354867470623221</v>
+      </c>
+      <c r="F192" t="n">
+        <v>-2.845082610164895</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>44980</v>
+        <v>44981</v>
       </c>
       <c r="B193" t="n">
-        <v>20.27432060017458</v>
+        <v>19.71178034355813</v>
       </c>
       <c r="C193" t="n">
-        <v>641835791.2932897</v>
+        <v>308759881.2158828</v>
       </c>
       <c r="D193" t="n">
-        <v>6396173987.057156</v>
+        <v>6199327027.588856</v>
       </c>
       <c r="E193" t="n">
-        <v>1.354867470623227</v>
+        <v>1.263426030720145</v>
+      </c>
+      <c r="F193" t="n">
+        <v>-3.077573559859781</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>44981</v>
+        <v>44982</v>
       </c>
       <c r="B194" t="n">
-        <v>19.71178034355813</v>
+        <v>18.37229478392857</v>
       </c>
       <c r="C194" t="n">
-        <v>308759881.2158828</v>
+        <v>310022693.4308449</v>
       </c>
       <c r="D194" t="n">
-        <v>6199327027.588856</v>
+        <v>5799083424.945272</v>
       </c>
       <c r="E194" t="n">
-        <v>1.263426030720151</v>
+        <v>1.240454365336064</v>
+      </c>
+      <c r="F194" t="n">
+        <v>-6.45624276413197</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>44982</v>
+        <v>44983</v>
       </c>
       <c r="B195" t="n">
-        <v>18.37229478392857</v>
+        <v>17.95741312737325</v>
       </c>
       <c r="C195" t="n">
-        <v>310022693.4308449</v>
+        <v>274540249.5433969</v>
       </c>
       <c r="D195" t="n">
-        <v>5799083424.945272</v>
+        <v>5658735820.148483</v>
       </c>
       <c r="E195" t="n">
-        <v>1.24045436533607</v>
+        <v>1.247578154184974</v>
+      </c>
+      <c r="F195" t="n">
+        <v>-2.420168749307372</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>44983</v>
+        <v>44984</v>
       </c>
       <c r="B196" t="n">
-        <v>17.95741312737325</v>
+        <v>18.44517665140621</v>
       </c>
       <c r="C196" t="n">
-        <v>274540249.5433969</v>
+        <v>187620544.2974946</v>
       </c>
       <c r="D196" t="n">
-        <v>5658735820.148483</v>
+        <v>5815472890.177786</v>
       </c>
       <c r="E196" t="n">
-        <v>1.247578154184981</v>
+        <v>1.223153631302104</v>
+      </c>
+      <c r="F196" t="n">
+        <v>2.769824833865275</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B197" t="n">
-        <v>18.44517665140621</v>
+        <v>17.92875977779744</v>
       </c>
       <c r="C197" t="n">
-        <v>187620544.2974946</v>
+        <v>227445927.987285</v>
       </c>
       <c r="D197" t="n">
-        <v>5815472890.177786</v>
+        <v>5826157301.381841</v>
       </c>
       <c r="E197" t="n">
-        <v>1.223153631302111</v>
+        <v>1.245603203266232</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.1837238588473289</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="B198" t="n">
-        <v>17.92875977779744</v>
+        <v>17.09496789593524</v>
       </c>
       <c r="C198" t="n">
-        <v>227445927.987285</v>
+        <v>190847324.9638522</v>
       </c>
       <c r="D198" t="n">
-        <v>5826157301.381841</v>
+        <v>5543410198.844217</v>
       </c>
       <c r="E198" t="n">
-        <v>1.245603203266239</v>
+        <v>1.282077087131487</v>
+      </c>
+      <c r="F198" t="n">
+        <v>-4.853063312769834</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B199" t="n">
-        <v>17.09496789593524</v>
+        <v>17.75249751419798</v>
       </c>
       <c r="C199" t="n">
-        <v>190847324.9638522</v>
+        <v>168512421.9606208</v>
       </c>
       <c r="D199" t="n">
-        <v>5543410198.844217</v>
+        <v>5772348982.614464</v>
       </c>
       <c r="E199" t="n">
-        <v>1.282077087131494</v>
+        <v>1.313380007962344</v>
+      </c>
+      <c r="F199" t="n">
+        <v>4.129926806029616</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B200" t="n">
-        <v>17.75249751419798</v>
+        <v>17.44293658440322</v>
       </c>
       <c r="C200" t="n">
-        <v>168512421.9606208</v>
+        <v>147653120.2336671</v>
       </c>
       <c r="D200" t="n">
-        <v>5772348982.614464</v>
+        <v>5666370260.797583</v>
       </c>
       <c r="E200" t="n">
-        <v>1.313380007962351</v>
+        <v>1.351767702645197</v>
+      </c>
+      <c r="F200" t="n">
+        <v>-1.835972186298418</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>44988</v>
+        <v>44989</v>
       </c>
       <c r="B201" t="n">
-        <v>17.44293658440322</v>
+        <v>16.6711281945137</v>
       </c>
       <c r="C201" t="n">
-        <v>147653120.2336671</v>
+        <v>205783181.2697219</v>
       </c>
       <c r="D201" t="n">
-        <v>5666370260.797583</v>
+        <v>5411446128.963162</v>
       </c>
       <c r="E201" t="n">
-        <v>1.351767702645205</v>
+        <v>1.387770577715552</v>
+      </c>
+      <c r="F201" t="n">
+        <v>-4.498896473428438</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>44989</v>
+        <v>44990</v>
       </c>
       <c r="B202" t="n">
-        <v>16.6711281945137</v>
+        <v>16.12060911859773</v>
       </c>
       <c r="C202" t="n">
-        <v>205783181.2697219</v>
+        <v>125758633.235418</v>
       </c>
       <c r="D202" t="n">
-        <v>5411446128.963162</v>
+        <v>5237042551.905167</v>
       </c>
       <c r="E202" t="n">
-        <v>1.387770577715559</v>
+        <v>1.428155748267215</v>
+      </c>
+      <c r="F202" t="n">
+        <v>-3.222864515356672</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>44990</v>
+        <v>44991</v>
       </c>
       <c r="B203" t="n">
-        <v>16.12060911859773</v>
+        <v>16.17545263197118</v>
       </c>
       <c r="C203" t="n">
-        <v>125758633.235418</v>
+        <v>108799609.7860448</v>
       </c>
       <c r="D203" t="n">
-        <v>5237042551.905167</v>
+        <v>5248714089.575642</v>
       </c>
       <c r="E203" t="n">
-        <v>1.428155748267222</v>
+        <v>1.434523537421054</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.2228650532203336</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="B204" t="n">
-        <v>16.17545263197118</v>
+        <v>16.52879979328429</v>
       </c>
       <c r="C204" t="n">
-        <v>108799609.7860448</v>
+        <v>162886026.7979439</v>
       </c>
       <c r="D204" t="n">
-        <v>5248714089.575642</v>
+        <v>5374138519.96349</v>
       </c>
       <c r="E204" t="n">
-        <v>1.434523537421062</v>
+        <v>1.421530247511205</v>
+      </c>
+      <c r="F204" t="n">
+        <v>2.38962207213671</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="B205" t="n">
-        <v>16.52879979328429</v>
+        <v>16.1794566036176</v>
       </c>
       <c r="C205" t="n">
-        <v>162886026.7979439</v>
+        <v>172090163.2328221</v>
       </c>
       <c r="D205" t="n">
-        <v>5374138519.96349</v>
+        <v>5247063440.195613</v>
       </c>
       <c r="E205" t="n">
-        <v>1.421530247511214</v>
+        <v>1.456803185392639</v>
+      </c>
+      <c r="F205" t="n">
+        <v>-2.364566512303834</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="B206" t="n">
-        <v>16.1794566036176</v>
+        <v>15.14638707144114</v>
       </c>
       <c r="C206" t="n">
-        <v>172090163.2328221</v>
+        <v>174958559.7600297</v>
       </c>
       <c r="D206" t="n">
-        <v>5247063440.195613</v>
+        <v>4935666267.201198</v>
       </c>
       <c r="E206" t="n">
-        <v>1.456803185392648</v>
+        <v>1.559017368340991</v>
+      </c>
+      <c r="F206" t="n">
+        <v>-5.93469426363189</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="B207" t="n">
-        <v>15.14638707144114</v>
+        <v>14.42683580448201</v>
       </c>
       <c r="C207" t="n">
-        <v>174958559.7600297</v>
+        <v>232654607.5850847</v>
       </c>
       <c r="D207" t="n">
-        <v>4935666267.201198</v>
+        <v>4674025588.406789</v>
       </c>
       <c r="E207" t="n">
-        <v>1.559017368340999</v>
+        <v>1.634611208208552</v>
+      </c>
+      <c r="F207" t="n">
+        <v>-5.30102046268971</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>44995</v>
+        <v>44996</v>
       </c>
       <c r="B208" t="n">
-        <v>14.42683580448201</v>
+        <v>14.85007753000952</v>
       </c>
       <c r="C208" t="n">
-        <v>232654607.5850847</v>
+        <v>310191552.3994516</v>
       </c>
       <c r="D208" t="n">
-        <v>4674025588.406789</v>
+        <v>4838739800.026855</v>
       </c>
       <c r="E208" t="n">
-        <v>1.63461120820856</v>
+        <v>1.692267724143248</v>
+      </c>
+      <c r="F208" t="n">
+        <v>3.524033159523454</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>44996</v>
+        <v>44997</v>
       </c>
       <c r="B209" t="n">
-        <v>14.85007753000952</v>
+        <v>14.53266573759585</v>
       </c>
       <c r="C209" t="n">
-        <v>310191552.3994516</v>
+        <v>243614846.6675153</v>
       </c>
       <c r="D209" t="n">
-        <v>4838739800.026855</v>
+        <v>4713942218.297858</v>
       </c>
       <c r="E209" t="n">
-        <v>1.692267724143256</v>
+        <v>1.801655109604597</v>
+      </c>
+      <c r="F209" t="n">
+        <v>-2.579133966416314</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>44997</v>
+        <v>44998</v>
       </c>
       <c r="B210" t="n">
-        <v>14.53266573759585</v>
+        <v>16.29727506042326</v>
       </c>
       <c r="C210" t="n">
-        <v>243614846.6675153</v>
+        <v>265505049.2318047</v>
       </c>
       <c r="D210" t="n">
-        <v>4713942218.297858</v>
+        <v>5290302234.400796</v>
       </c>
       <c r="E210" t="n">
-        <v>1.801655109604604</v>
+        <v>1.822599797772301</v>
+      </c>
+      <c r="F210" t="n">
+        <v>12.22670939549728</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="B211" t="n">
-        <v>16.29727506042326</v>
+        <v>16.46967098925891</v>
       </c>
       <c r="C211" t="n">
-        <v>265505049.2318047</v>
+        <v>331844465.6139489</v>
       </c>
       <c r="D211" t="n">
-        <v>5290302234.400796</v>
+        <v>5366193858.75631</v>
       </c>
       <c r="E211" t="n">
-        <v>1.822599797772308</v>
+        <v>1.836623916805036</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1.434542319000598</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="B212" t="n">
-        <v>16.46967098925891</v>
+        <v>17.19714712552769</v>
       </c>
       <c r="C212" t="n">
-        <v>331844465.6139489</v>
+        <v>442149177.7924705</v>
       </c>
       <c r="D212" t="n">
-        <v>5366193858.75631</v>
+        <v>5602264711.153725</v>
       </c>
       <c r="E212" t="n">
-        <v>1.836623916805043</v>
+        <v>1.83893521663859</v>
+      </c>
+      <c r="F212" t="n">
+        <v>4.399223334285729</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="B213" t="n">
-        <v>17.19714712552769</v>
+        <v>15.62634005776773</v>
       </c>
       <c r="C213" t="n">
-        <v>442149177.7924705</v>
+        <v>347876941.9604115</v>
       </c>
       <c r="D213" t="n">
-        <v>5602264711.153725</v>
+        <v>5087388105.908977</v>
       </c>
       <c r="E213" t="n">
-        <v>1.838935216638597</v>
+        <v>1.877021737869391</v>
+      </c>
+      <c r="F213" t="n">
+        <v>-9.190508335310611</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="B214" t="n">
-        <v>15.62634005776773</v>
+        <v>15.94036600915997</v>
       </c>
       <c r="C214" t="n">
-        <v>347876941.9604115</v>
+        <v>222870081.9172594</v>
       </c>
       <c r="D214" t="n">
-        <v>5087388105.908977</v>
+        <v>5201316242.41837</v>
       </c>
       <c r="E214" t="n">
-        <v>1.877021737869399</v>
+        <v>1.898437213910577</v>
+      </c>
+      <c r="F214" t="n">
+        <v>2.23942294430155</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45002</v>
+        <v>45003</v>
       </c>
       <c r="B215" t="n">
-        <v>15.94036600915997</v>
+        <v>17.69042605889859</v>
       </c>
       <c r="C215" t="n">
-        <v>222870081.9172594</v>
+        <v>288663273.1992566</v>
       </c>
       <c r="D215" t="n">
-        <v>5201316242.41837</v>
+        <v>5734295433.403276</v>
       </c>
       <c r="E215" t="n">
-        <v>1.898437213910584</v>
+        <v>1.84681826408012</v>
+      </c>
+      <c r="F215" t="n">
+        <v>10.247006068162</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45003</v>
+        <v>45004</v>
       </c>
       <c r="B216" t="n">
-        <v>17.69042605889859</v>
+        <v>17.03499139891697</v>
       </c>
       <c r="C216" t="n">
-        <v>288663273.1992566</v>
+        <v>311327281.6800278</v>
       </c>
       <c r="D216" t="n">
-        <v>5734295433.403276</v>
+        <v>5548520421.7143</v>
       </c>
       <c r="E216" t="n">
-        <v>1.846818264080127</v>
+        <v>1.834046511566101</v>
+      </c>
+      <c r="F216" t="n">
+        <v>-3.23971818066443</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45004</v>
+        <v>45005</v>
       </c>
       <c r="B217" t="n">
-        <v>17.03499139891697</v>
+        <v>17.69473399134752</v>
       </c>
       <c r="C217" t="n">
-        <v>311327281.6800278</v>
+        <v>251173800.8115495</v>
       </c>
       <c r="D217" t="n">
-        <v>5548520421.7143</v>
+        <v>5790737282.306985</v>
       </c>
       <c r="E217" t="n">
-        <v>1.834046511566108</v>
+        <v>1.791361799449883</v>
+      </c>
+      <c r="F217" t="n">
+        <v>4.365431541799181</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45005</v>
+        <v>45006</v>
       </c>
       <c r="B218" t="n">
-        <v>17.69473399134752</v>
+        <v>16.76025181347806</v>
       </c>
       <c r="C218" t="n">
-        <v>251173800.8115495</v>
+        <v>280132625.1407505</v>
       </c>
       <c r="D218" t="n">
-        <v>5790737282.306985</v>
+        <v>5459326940.72807</v>
       </c>
       <c r="E218" t="n">
-        <v>1.79136179944989</v>
+        <v>1.743091900165443</v>
+      </c>
+      <c r="F218" t="n">
+        <v>-5.72311133146215</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="B219" t="n">
-        <v>16.76025181347806</v>
+        <v>17.54535992086402</v>
       </c>
       <c r="C219" t="n">
-        <v>280132625.1407505</v>
+        <v>193739055.5657549</v>
       </c>
       <c r="D219" t="n">
-        <v>5459326940.72807</v>
+        <v>5704475679.628567</v>
       </c>
       <c r="E219" t="n">
-        <v>1.743091900165451</v>
+        <v>1.676817090057416</v>
+      </c>
+      <c r="F219" t="n">
+        <v>4.490457185694807</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45007</v>
+        <v>45008</v>
       </c>
       <c r="B220" t="n">
-        <v>17.54535992086402</v>
+        <v>16.86163804792299</v>
       </c>
       <c r="C220" t="n">
-        <v>193739055.5657549</v>
+        <v>322382292.273863</v>
       </c>
       <c r="D220" t="n">
-        <v>5704475679.628567</v>
+        <v>5484004165.63493</v>
       </c>
       <c r="E220" t="n">
-        <v>1.676817090057424</v>
+        <v>1.532932422132807</v>
+      </c>
+      <c r="F220" t="n">
+        <v>-3.864886562335079</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="B221" t="n">
-        <v>16.86163804792299</v>
+        <v>17.63563692079476</v>
       </c>
       <c r="C221" t="n">
-        <v>322382292.273863</v>
+        <v>233876583.4762565</v>
       </c>
       <c r="D221" t="n">
-        <v>5484004165.63493</v>
+        <v>5738113291.786334</v>
       </c>
       <c r="E221" t="n">
-        <v>1.532932422132816</v>
+        <v>1.355630433979771</v>
+      </c>
+      <c r="F221" t="n">
+        <v>4.633642106688374</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45009</v>
+        <v>45010</v>
       </c>
       <c r="B222" t="n">
-        <v>17.63563692079476</v>
+        <v>17.09141613840787</v>
       </c>
       <c r="C222" t="n">
-        <v>233876583.4762565</v>
+        <v>196858597.0959528</v>
       </c>
       <c r="D222" t="n">
-        <v>5738113291.786334</v>
+        <v>5576588339.998139</v>
       </c>
       <c r="E222" t="n">
-        <v>1.355630433979781</v>
+        <v>1.201965567112226</v>
+      </c>
+      <c r="F222" t="n">
+        <v>-2.814948809383133</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45010</v>
+        <v>45011</v>
       </c>
       <c r="B223" t="n">
-        <v>17.09141613840787</v>
+        <v>16.970315766929</v>
       </c>
       <c r="C223" t="n">
-        <v>196858597.0959528</v>
+        <v>196745408.32532</v>
       </c>
       <c r="D223" t="n">
-        <v>5576588339.998139</v>
+        <v>5524173954.607827</v>
       </c>
       <c r="E223" t="n">
-        <v>1.201965567112237</v>
+        <v>1.073393823739001</v>
+      </c>
+      <c r="F223" t="n">
+        <v>-0.9399005663439319</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45011</v>
+        <v>45012</v>
       </c>
       <c r="B224" t="n">
-        <v>16.970315766929</v>
+        <v>17.14373775557878</v>
       </c>
       <c r="C224" t="n">
-        <v>196745408.32532</v>
+        <v>153740279.2419156</v>
       </c>
       <c r="D224" t="n">
-        <v>5524173954.607827</v>
+        <v>5598403623.482062</v>
       </c>
       <c r="E224" t="n">
-        <v>1.073393823739013</v>
+        <v>1.031923246472671</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1.343724319403794</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45012</v>
+        <v>45013</v>
       </c>
       <c r="B225" t="n">
-        <v>17.14373775557878</v>
+        <v>16.55045565763274</v>
       </c>
       <c r="C225" t="n">
-        <v>153740279.2419156</v>
+        <v>182710084.2074077</v>
       </c>
       <c r="D225" t="n">
-        <v>5598403623.482062</v>
+        <v>5381674482.648215</v>
       </c>
       <c r="E225" t="n">
-        <v>1.031923246472683</v>
+        <v>1.00475288820654</v>
+      </c>
+      <c r="F225" t="n">
+        <v>-3.871266800499951</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="B226" t="n">
-        <v>16.55045565763274</v>
+        <v>16.7521248873378</v>
       </c>
       <c r="C226" t="n">
-        <v>182710084.2074077</v>
+        <v>189079624.2786136</v>
       </c>
       <c r="D226" t="n">
-        <v>5381674482.648215</v>
+        <v>5459176310.140416</v>
       </c>
       <c r="E226" t="n">
-        <v>1.004752888206554</v>
+        <v>0.9469193023528644</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1.440106192637347</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45014</v>
+        <v>45015</v>
       </c>
       <c r="B227" t="n">
-        <v>16.7521248873378</v>
+        <v>17.31347437870938</v>
       </c>
       <c r="C227" t="n">
-        <v>189079624.2786136</v>
+        <v>213256389.9499414</v>
       </c>
       <c r="D227" t="n">
-        <v>5459176310.140416</v>
+        <v>5637486299.473306</v>
       </c>
       <c r="E227" t="n">
-        <v>0.9469193023528784</v>
+        <v>0.9236073543213615</v>
+      </c>
+      <c r="F227" t="n">
+        <v>3.266243462437335</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="B228" t="n">
-        <v>17.31347437870938</v>
+        <v>17.24645198823185</v>
       </c>
       <c r="C228" t="n">
-        <v>213256389.9499414</v>
+        <v>237278413.1949794</v>
       </c>
       <c r="D228" t="n">
-        <v>5637486299.473306</v>
+        <v>5618941328.441232</v>
       </c>
       <c r="E228" t="n">
-        <v>0.9236073543213759</v>
+        <v>0.9269096937189252</v>
+      </c>
+      <c r="F228" t="n">
+        <v>-0.3289581570035338</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45016</v>
+        <v>45017</v>
       </c>
       <c r="B229" t="n">
-        <v>17.24645198823185</v>
+        <v>17.7208100741346</v>
       </c>
       <c r="C229" t="n">
-        <v>237278413.1949794</v>
+        <v>219235413.5899166</v>
       </c>
       <c r="D229" t="n">
-        <v>5618941328.441232</v>
+        <v>5774920283.868628</v>
       </c>
       <c r="E229" t="n">
-        <v>0.9269096937189394</v>
+        <v>0.9255543512807202</v>
+      </c>
+      <c r="F229" t="n">
+        <v>2.775949174587056</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45017</v>
+        <v>45018</v>
       </c>
       <c r="B230" t="n">
-        <v>17.7208100741346</v>
+        <v>17.79151252244389</v>
       </c>
       <c r="C230" t="n">
-        <v>219235413.5899166</v>
+        <v>138456550.1373662</v>
       </c>
       <c r="D230" t="n">
-        <v>5774920283.868628</v>
+        <v>5800058806.996716</v>
       </c>
       <c r="E230" t="n">
-        <v>0.9255543512807345</v>
+        <v>0.9387608417397</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0.4353051105884465</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45018</v>
+        <v>45019</v>
       </c>
       <c r="B231" t="n">
-        <v>17.79151252244389</v>
+        <v>17.29654734345742</v>
       </c>
       <c r="C231" t="n">
-        <v>138456550.1373662</v>
+        <v>140737668.4597237</v>
       </c>
       <c r="D231" t="n">
-        <v>5800058806.996716</v>
+        <v>5632715156.467496</v>
       </c>
       <c r="E231" t="n">
-        <v>0.9387608417397142</v>
+        <v>0.9473265962401959</v>
+      </c>
+      <c r="F231" t="n">
+        <v>-2.885206100451099</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45019</v>
+        <v>45020</v>
       </c>
       <c r="B232" t="n">
-        <v>17.29654734345742</v>
+        <v>17.10791141941935</v>
       </c>
       <c r="C232" t="n">
-        <v>140737668.4597237</v>
+        <v>211281143.4628408</v>
       </c>
       <c r="D232" t="n">
-        <v>5632715156.467496</v>
+        <v>5586018882.514759</v>
       </c>
       <c r="E232" t="n">
-        <v>0.9473265962402098</v>
+        <v>0.9465394557833965</v>
+      </c>
+      <c r="F232" t="n">
+        <v>-0.829018912826085</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45020</v>
+        <v>45021</v>
       </c>
       <c r="B233" t="n">
-        <v>17.10791141941935</v>
+        <v>17.64850406814615</v>
       </c>
       <c r="C233" t="n">
-        <v>211281143.4628408</v>
+        <v>167360525.5580899</v>
       </c>
       <c r="D233" t="n">
-        <v>5586018882.514759</v>
+        <v>5751564430.187333</v>
       </c>
       <c r="E233" t="n">
-        <v>0.9465394557834105</v>
+        <v>0.9590579193319397</v>
+      </c>
+      <c r="F233" t="n">
+        <v>2.963569424921952</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="B234" t="n">
-        <v>17.64850406814615</v>
+        <v>17.99882705329905</v>
       </c>
       <c r="C234" t="n">
-        <v>167360525.5580899</v>
+        <v>258959271.0113506</v>
       </c>
       <c r="D234" t="n">
-        <v>5751564430.187333</v>
+        <v>5876578953.029212</v>
       </c>
       <c r="E234" t="n">
-        <v>0.9590579193319535</v>
+        <v>0.987063750439884</v>
+      </c>
+      <c r="F234" t="n">
+        <v>2.173574239831777</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45022</v>
+        <v>45023</v>
       </c>
       <c r="B235" t="n">
-        <v>17.99882705329905</v>
+        <v>18.004222269031</v>
       </c>
       <c r="C235" t="n">
-        <v>258959271.0113506</v>
+        <v>210732629.595548</v>
       </c>
       <c r="D235" t="n">
-        <v>5876578953.029212</v>
+        <v>5877206035.368627</v>
       </c>
       <c r="E235" t="n">
-        <v>0.9870637504398975</v>
+        <v>1.006676245462339</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0.01067087406512179</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45023</v>
+        <v>45024</v>
       </c>
       <c r="B236" t="n">
-        <v>18.004222269031</v>
+        <v>17.63057831085385</v>
       </c>
       <c r="C236" t="n">
-        <v>210732629.595548</v>
+        <v>159360606.0449179</v>
       </c>
       <c r="D236" t="n">
-        <v>5877206035.368627</v>
+        <v>5749930250.083195</v>
       </c>
       <c r="E236" t="n">
-        <v>1.006676245462353</v>
+        <v>0.9663459711186628</v>
+      </c>
+      <c r="F236" t="n">
+        <v>-2.1655831788012</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45024</v>
+        <v>45025</v>
       </c>
       <c r="B237" t="n">
-        <v>17.63057831085385</v>
+        <v>17.47448095151074</v>
       </c>
       <c r="C237" t="n">
-        <v>159360606.0449179</v>
+        <v>119926164.9570251</v>
       </c>
       <c r="D237" t="n">
-        <v>5749930250.083195</v>
+        <v>5697772471.02408</v>
       </c>
       <c r="E237" t="n">
-        <v>0.9663459711186765</v>
+        <v>0.851353321333984</v>
+      </c>
+      <c r="F237" t="n">
+        <v>-0.9071028132621173</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45025</v>
+        <v>45026</v>
       </c>
       <c r="B238" t="n">
-        <v>17.47448095151074</v>
+        <v>17.56797556109862</v>
       </c>
       <c r="C238" t="n">
-        <v>119926164.9570251</v>
+        <v>128865651.0741976</v>
       </c>
       <c r="D238" t="n">
-        <v>5697772471.02408</v>
+        <v>5731763824.563465</v>
       </c>
       <c r="E238" t="n">
-        <v>0.8513533213339995</v>
+        <v>0.754197073542222</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.5965726731323118</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="B239" t="n">
-        <v>17.56797556109862</v>
+        <v>17.93560967022123</v>
       </c>
       <c r="C239" t="n">
-        <v>128865651.0741976</v>
+        <v>152560325.914175</v>
       </c>
       <c r="D239" t="n">
-        <v>5731763824.563465</v>
+        <v>5850863344.28153</v>
       </c>
       <c r="E239" t="n">
-        <v>0.7541970735422395</v>
+        <v>0.5962037303764477</v>
+      </c>
+      <c r="F239" t="n">
+        <v>2.077886028863651</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="B240" t="n">
-        <v>17.93560967022123</v>
+        <v>18.17151556827052</v>
       </c>
       <c r="C240" t="n">
-        <v>152560325.914175</v>
+        <v>208447947.9954664</v>
       </c>
       <c r="D240" t="n">
-        <v>5850863344.28153</v>
+        <v>5927631443.310035</v>
       </c>
       <c r="E240" t="n">
-        <v>0.5962037303764699</v>
+        <v>0.5965503170680273</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1.312081559784417</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45028</v>
+        <v>45029</v>
       </c>
       <c r="B241" t="n">
-        <v>18.17151556827052</v>
+        <v>18.26025417211056</v>
       </c>
       <c r="C241" t="n">
-        <v>208447947.9954664</v>
+        <v>326973466.9702478</v>
       </c>
       <c r="D241" t="n">
-        <v>5927631443.310035</v>
+        <v>5962950110.11922</v>
       </c>
       <c r="E241" t="n">
-        <v>0.5965503170680495</v>
+        <v>0.604026531509284</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0.5958310186279459</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="B242" t="n">
-        <v>18.26025417211056</v>
+        <v>18.86000467386274</v>
       </c>
       <c r="C242" t="n">
-        <v>326973466.9702478</v>
+        <v>289632215.606108</v>
       </c>
       <c r="D242" t="n">
-        <v>5962950110.11922</v>
+        <v>6146233512.808295</v>
       </c>
       <c r="E242" t="n">
-        <v>0.6040265315093059</v>
+        <v>0.6653464953788252</v>
+      </c>
+      <c r="F242" t="n">
+        <v>3.073703440483944</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45030</v>
+        <v>45031</v>
       </c>
       <c r="B243" t="n">
-        <v>18.86000467386274</v>
+        <v>19.25911312098672</v>
       </c>
       <c r="C243" t="n">
-        <v>289632215.606108</v>
+        <v>283787303.9214674</v>
       </c>
       <c r="D243" t="n">
-        <v>6146233512.808295</v>
+        <v>6285487838.329628</v>
       </c>
       <c r="E243" t="n">
-        <v>0.665346495378845</v>
+        <v>0.6662178678333524</v>
+      </c>
+      <c r="F243" t="n">
+        <v>2.265685565495312</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45031</v>
+        <v>45032</v>
       </c>
       <c r="B244" t="n">
-        <v>19.25911312098672</v>
+        <v>19.10176086565366</v>
       </c>
       <c r="C244" t="n">
-        <v>283787303.9214674</v>
+        <v>217413976.0273589</v>
       </c>
       <c r="D244" t="n">
-        <v>6285487838.329628</v>
+        <v>6235653173.531929</v>
       </c>
       <c r="E244" t="n">
-        <v>0.6662178678333722</v>
+        <v>0.6612465394672928</v>
+      </c>
+      <c r="F244" t="n">
+        <v>-0.7928527757829928</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="B245" t="n">
-        <v>19.10176086565366</v>
+        <v>20.21670686735859</v>
       </c>
       <c r="C245" t="n">
-        <v>217413976.0273589</v>
+        <v>335417879.7199116</v>
       </c>
       <c r="D245" t="n">
-        <v>6235653173.531929</v>
+        <v>6588366471.491529</v>
       </c>
       <c r="E245" t="n">
-        <v>0.6612465394673128</v>
+        <v>0.8154982742961846</v>
+      </c>
+      <c r="F245" t="n">
+        <v>5.656396982704859</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45033</v>
+        <v>45034</v>
       </c>
       <c r="B246" t="n">
-        <v>20.21670686735859</v>
+        <v>20.52651020727771</v>
       </c>
       <c r="C246" t="n">
-        <v>335417879.7199116</v>
+        <v>581579377.1840807</v>
       </c>
       <c r="D246" t="n">
-        <v>6588366471.491529</v>
+        <v>6693551147.095714</v>
       </c>
       <c r="E246" t="n">
-        <v>0.8154982742962009</v>
+        <v>0.9560846396974941</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1.596521323750411</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="B247" t="n">
-        <v>20.52651020727771</v>
+        <v>21.21280494881015</v>
       </c>
       <c r="C247" t="n">
-        <v>581579377.1840807</v>
+        <v>364206950.9945653</v>
       </c>
       <c r="D247" t="n">
-        <v>6693551147.095714</v>
+        <v>6925099959.076755</v>
       </c>
       <c r="E247" t="n">
-        <v>0.9560846396975079</v>
+        <v>1.140174870207328</v>
+      </c>
+      <c r="F247" t="n">
+        <v>3.459282029711663</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="B248" t="n">
-        <v>21.21280494881015</v>
+        <v>18.94763754801823</v>
       </c>
       <c r="C248" t="n">
-        <v>364206950.9945653</v>
+        <v>436292723.4762349</v>
       </c>
       <c r="D248" t="n">
-        <v>6925099959.076755</v>
+        <v>6192002677.187234</v>
       </c>
       <c r="E248" t="n">
-        <v>1.14017487020734</v>
+        <v>1.133247649127537</v>
+      </c>
+      <c r="F248" t="n">
+        <v>-10.58608953259436</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45036</v>
+        <v>45037</v>
       </c>
       <c r="B249" t="n">
-        <v>18.94763754801823</v>
+        <v>18.31766023171094</v>
       </c>
       <c r="C249" t="n">
-        <v>436292723.4762349</v>
+        <v>317155123.5290152</v>
       </c>
       <c r="D249" t="n">
-        <v>6192002677.187234</v>
+        <v>5981847185.850544</v>
       </c>
       <c r="E249" t="n">
-        <v>1.133247649127549</v>
+        <v>1.13145653400908</v>
+      </c>
+      <c r="F249" t="n">
+        <v>-3.393982565785236</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45037</v>
+        <v>45038</v>
       </c>
       <c r="B250" t="n">
-        <v>18.31766023171094</v>
+        <v>16.9485270129361</v>
       </c>
       <c r="C250" t="n">
-        <v>317155123.5290152</v>
+        <v>333334822.4920405</v>
       </c>
       <c r="D250" t="n">
-        <v>5981847185.850544</v>
+        <v>5534822190.253348</v>
       </c>
       <c r="E250" t="n">
-        <v>1.131456534009091</v>
+        <v>1.128495018881282</v>
+      </c>
+      <c r="F250" t="n">
+        <v>-7.473026001977923</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45038</v>
+        <v>45039</v>
       </c>
       <c r="B251" t="n">
-        <v>16.9485270129361</v>
+        <v>17.26405372350128</v>
       </c>
       <c r="C251" t="n">
-        <v>333334822.4920405</v>
+        <v>149133164.6039894</v>
       </c>
       <c r="D251" t="n">
-        <v>5534822190.253348</v>
+        <v>5641597872.843928</v>
       </c>
       <c r="E251" t="n">
-        <v>1.128495018881294</v>
+        <v>1.134919110979741</v>
+      </c>
+      <c r="F251" t="n">
+        <v>1.929161930054568</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45039</v>
+        <v>45040</v>
       </c>
       <c r="B252" t="n">
-        <v>17.26405372350128</v>
+        <v>16.88025515065659</v>
       </c>
       <c r="C252" t="n">
-        <v>149133164.6039894</v>
+        <v>142242556.7394614</v>
       </c>
       <c r="D252" t="n">
-        <v>5641597872.843928</v>
+        <v>5504683045.174706</v>
       </c>
       <c r="E252" t="n">
-        <v>1.134919110979753</v>
+        <v>1.141455280826375</v>
+      </c>
+      <c r="F252" t="n">
+        <v>-2.426880305104118</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45040</v>
+        <v>45041</v>
       </c>
       <c r="B253" t="n">
-        <v>16.88025515065659</v>
+        <v>16.93632015896331</v>
       </c>
       <c r="C253" t="n">
-        <v>142242556.7394614</v>
+        <v>169331955.832292</v>
       </c>
       <c r="D253" t="n">
-        <v>5504683045.174706</v>
+        <v>5532364680.477793</v>
       </c>
       <c r="E253" t="n">
-        <v>1.141455280826387</v>
+        <v>1.142533240905602</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0.5028742813330878</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45041</v>
+        <v>45042</v>
       </c>
       <c r="B254" t="n">
-        <v>16.93632015896331</v>
+        <v>17.65805963659934</v>
       </c>
       <c r="C254" t="n">
-        <v>169331955.832292</v>
+        <v>223582072.0450925</v>
       </c>
       <c r="D254" t="n">
-        <v>5532364680.477793</v>
+        <v>5773911480.596378</v>
       </c>
       <c r="E254" t="n">
-        <v>1.142533240905614</v>
+        <v>1.13301617434354</v>
+      </c>
+      <c r="F254" t="n">
+        <v>4.366067930607298</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="B255" t="n">
-        <v>17.65805963659934</v>
+        <v>17.16601372515585</v>
       </c>
       <c r="C255" t="n">
-        <v>223582072.0450925</v>
+        <v>319009279.1958209</v>
       </c>
       <c r="D255" t="n">
-        <v>5773911480.596378</v>
+        <v>5615758010.473229</v>
       </c>
       <c r="E255" t="n">
-        <v>1.133016174343551</v>
+        <v>1.110841836471816</v>
+      </c>
+      <c r="F255" t="n">
+        <v>-2.739104516143598</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="B256" t="n">
-        <v>17.16601372515585</v>
+        <v>17.73040839839823</v>
       </c>
       <c r="C256" t="n">
-        <v>319009279.1958209</v>
+        <v>219845420.2948077</v>
       </c>
       <c r="D256" t="n">
-        <v>5615758010.473229</v>
+        <v>5792252785.931264</v>
       </c>
       <c r="E256" t="n">
-        <v>1.110841836471828</v>
+        <v>1.085791987618403</v>
+      </c>
+      <c r="F256" t="n">
+        <v>3.142848661371755</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45044</v>
+        <v>45045</v>
       </c>
       <c r="B257" t="n">
-        <v>17.73040839839823</v>
+        <v>17.56296832310015</v>
       </c>
       <c r="C257" t="n">
-        <v>219845420.2948077</v>
+        <v>134576131.1687599</v>
       </c>
       <c r="D257" t="n">
-        <v>5792252785.931264</v>
+        <v>5749011410.081307</v>
       </c>
       <c r="E257" t="n">
-        <v>1.085791987618416</v>
+        <v>1.080716335933884</v>
+      </c>
+      <c r="F257" t="n">
+        <v>-0.7465381337462551</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45045</v>
+        <v>45046</v>
       </c>
       <c r="B258" t="n">
-        <v>17.56296832310015</v>
+        <v>17.46693062857854</v>
       </c>
       <c r="C258" t="n">
-        <v>134576131.1687599</v>
+        <v>103122632.6814312</v>
       </c>
       <c r="D258" t="n">
-        <v>5749011410.081307</v>
+        <v>5729638209.996334</v>
       </c>
       <c r="E258" t="n">
-        <v>1.080716335933896</v>
+        <v>1.075579567103641</v>
+      </c>
+      <c r="F258" t="n">
+        <v>-0.336983155938797</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>45046</v>
+        <v>45047</v>
       </c>
       <c r="B259" t="n">
-        <v>17.46693062857854</v>
+        <v>17.20430692150248</v>
       </c>
       <c r="C259" t="n">
-        <v>103122632.6814312</v>
+        <v>125171231.5840302</v>
       </c>
       <c r="D259" t="n">
-        <v>5729638209.996334</v>
+        <v>5652314785.68788</v>
       </c>
       <c r="E259" t="n">
-        <v>1.075579567103653</v>
+        <v>1.085759011909696</v>
+      </c>
+      <c r="F259" t="n">
+        <v>-1.349534149879661</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>45047</v>
+        <v>45048</v>
       </c>
       <c r="B260" t="n">
-        <v>17.20430692150248</v>
+        <v>16.67019143615944</v>
       </c>
       <c r="C260" t="n">
-        <v>125171231.5840302</v>
+        <v>150202606.4677413</v>
       </c>
       <c r="D260" t="n">
-        <v>5652314785.68788</v>
+        <v>5475575239.172986</v>
       </c>
       <c r="E260" t="n">
-        <v>1.085759011909709</v>
+        <v>1.114649934919591</v>
+      </c>
+      <c r="F260" t="n">
+        <v>-3.126852505851452</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45048</v>
+        <v>45049</v>
       </c>
       <c r="B261" t="n">
-        <v>16.67019143615944</v>
+        <v>16.85781200268532</v>
       </c>
       <c r="C261" t="n">
-        <v>150202606.4677413</v>
+        <v>118952695.7998253</v>
       </c>
       <c r="D261" t="n">
-        <v>5475575239.172986</v>
+        <v>5542064029.957348</v>
       </c>
       <c r="E261" t="n">
-        <v>1.114649934919603</v>
+        <v>1.127466646605041</v>
+      </c>
+      <c r="F261" t="n">
+        <v>1.214279557491826</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="B262" t="n">
-        <v>16.85781200268532</v>
+        <v>17.20889441725978</v>
       </c>
       <c r="C262" t="n">
-        <v>118952695.7998253</v>
+        <v>180750582.8355792</v>
       </c>
       <c r="D262" t="n">
-        <v>5542064029.957348</v>
+        <v>5668624900.858235</v>
       </c>
       <c r="E262" t="n">
-        <v>1.127466646605053</v>
+        <v>1.124798498421623</v>
+      </c>
+      <c r="F262" t="n">
+        <v>2.283641441469619</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45050</v>
+        <v>45051</v>
       </c>
       <c r="B263" t="n">
-        <v>17.20889441725978</v>
+        <v>16.92211432485042</v>
       </c>
       <c r="C263" t="n">
-        <v>180750582.8355792</v>
+        <v>119027279.5259413</v>
       </c>
       <c r="D263" t="n">
-        <v>5668624900.858235</v>
+        <v>5582158988.035033</v>
       </c>
       <c r="E263" t="n">
-        <v>1.124798498421634</v>
+        <v>1.140841179345689</v>
+      </c>
+      <c r="F263" t="n">
+        <v>-1.525341936280011</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>45051</v>
+        <v>45052</v>
       </c>
       <c r="B264" t="n">
-        <v>16.92211432485042</v>
+        <v>17.38376174156726</v>
       </c>
       <c r="C264" t="n">
-        <v>119027279.5259413</v>
+        <v>198487167.1661116</v>
       </c>
       <c r="D264" t="n">
-        <v>5582158988.035033</v>
+        <v>5740989224.991894</v>
       </c>
       <c r="E264" t="n">
-        <v>1.140841179345701</v>
+        <v>1.146353144203916</v>
+      </c>
+      <c r="F264" t="n">
+        <v>2.845319119310319</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>45052</v>
+        <v>45053</v>
       </c>
       <c r="B265" t="n">
-        <v>17.38376174156726</v>
+        <v>16.63156150081212</v>
       </c>
       <c r="C265" t="n">
-        <v>198487167.1661116</v>
+        <v>155577198.7385677</v>
       </c>
       <c r="D265" t="n">
-        <v>5740989224.991894</v>
+        <v>5486449650.743662</v>
       </c>
       <c r="E265" t="n">
-        <v>1.146353144203927</v>
+        <v>1.172379320074608</v>
+      </c>
+      <c r="F265" t="n">
+        <v>-4.433723253479737</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>45053</v>
+        <v>45054</v>
       </c>
       <c r="B266" t="n">
-        <v>16.63156150081212</v>
+        <v>16.49112502244111</v>
       </c>
       <c r="C266" t="n">
-        <v>155577198.7385677</v>
+        <v>102184611.035818</v>
       </c>
       <c r="D266" t="n">
-        <v>5486449650.743662</v>
+        <v>5451856528.386921</v>
       </c>
       <c r="E266" t="n">
-        <v>1.172379320074619</v>
+        <v>1.200615297399156</v>
+      </c>
+      <c r="F266" t="n">
+        <v>-0.6305192712750429</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>45054</v>
+        <v>45055</v>
       </c>
       <c r="B267" t="n">
-        <v>16.49112502244111</v>
+        <v>15.42298587620517</v>
       </c>
       <c r="C267" t="n">
-        <v>102184611.035818</v>
+        <v>271824525.6985789</v>
       </c>
       <c r="D267" t="n">
-        <v>5451856528.386921</v>
+        <v>5096828006.822806</v>
       </c>
       <c r="E267" t="n">
-        <v>1.200615297399167</v>
+        <v>1.281090057177805</v>
+      </c>
+      <c r="F267" t="n">
+        <v>-6.512066480758238</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>45055</v>
+        <v>45056</v>
       </c>
       <c r="B268" t="n">
-        <v>15.42298587620517</v>
+        <v>15.31919834638675</v>
       </c>
       <c r="C268" t="n">
-        <v>271824525.6985789</v>
+        <v>131939228.4953614</v>
       </c>
       <c r="D268" t="n">
-        <v>5096828006.822806</v>
+        <v>5075546178.645794</v>
       </c>
       <c r="E268" t="n">
-        <v>1.281090057177816</v>
+        <v>1.360071597925635</v>
+      </c>
+      <c r="F268" t="n">
+        <v>-0.4175504480144032</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="B269" t="n">
-        <v>15.31919834638675</v>
+        <v>15.55738154038351</v>
       </c>
       <c r="C269" t="n">
-        <v>131939228.4953614</v>
+        <v>242240396.1327506</v>
       </c>
       <c r="D269" t="n">
-        <v>5075546178.645794</v>
+        <v>5156623878.201665</v>
       </c>
       <c r="E269" t="n">
-        <v>1.360071597925645</v>
+        <v>1.417065933660999</v>
+      </c>
+      <c r="F269" t="n">
+        <v>1.597418222633595</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="B270" t="n">
-        <v>15.55738154038351</v>
+        <v>14.98179369466006</v>
       </c>
       <c r="C270" t="n">
-        <v>242240396.1327506</v>
+        <v>150411023.5775546</v>
       </c>
       <c r="D270" t="n">
-        <v>5156623878.201665</v>
+        <v>4967737842.29063</v>
       </c>
       <c r="E270" t="n">
-        <v>1.417065933661008</v>
+        <v>1.495765028001936</v>
+      </c>
+      <c r="F270" t="n">
+        <v>-3.662978731287792</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>45058</v>
+        <v>45059</v>
       </c>
       <c r="B271" t="n">
-        <v>14.98179369466006</v>
+        <v>15.19805790526486</v>
       </c>
       <c r="C271" t="n">
-        <v>150411023.5775546</v>
+        <v>170491535.9563516</v>
       </c>
       <c r="D271" t="n">
-        <v>4967737842.29063</v>
+        <v>5047703145.775777</v>
       </c>
       <c r="E271" t="n">
-        <v>1.495765028001945</v>
+        <v>1.550217338292039</v>
+      </c>
+      <c r="F271" t="n">
+        <v>1.609692500365001</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>45059</v>
+        <v>45060</v>
       </c>
       <c r="B272" t="n">
-        <v>15.19805790526486</v>
+        <v>14.93717101604428</v>
       </c>
       <c r="C272" t="n">
-        <v>170491535.9563516</v>
+        <v>78209552.90563621</v>
       </c>
       <c r="D272" t="n">
-        <v>5047703145.775777</v>
+        <v>4977585096.46533</v>
       </c>
       <c r="E272" t="n">
-        <v>1.550217338292048</v>
+        <v>1.593209489534292</v>
+      </c>
+      <c r="F272" t="n">
+        <v>-1.389108021717278</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>45060</v>
+        <v>45061</v>
       </c>
       <c r="B273" t="n">
-        <v>14.93717101604428</v>
+        <v>15.0164888356189</v>
       </c>
       <c r="C273" t="n">
-        <v>78209552.90563621</v>
+        <v>86314934.93480189</v>
       </c>
       <c r="D273" t="n">
-        <v>4977585096.46533</v>
+        <v>4996415824.732142</v>
       </c>
       <c r="E273" t="n">
-        <v>1.593209489534301</v>
+        <v>1.604575960551956</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0.3783105241170981</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="B274" t="n">
-        <v>15.0164888356189</v>
+        <v>15.11005748806165</v>
       </c>
       <c r="C274" t="n">
-        <v>86314934.93480189</v>
+        <v>145604947.9949723</v>
       </c>
       <c r="D274" t="n">
-        <v>4996415824.732142</v>
+        <v>5036630418.263512</v>
       </c>
       <c r="E274" t="n">
-        <v>1.604575960551964</v>
+        <v>1.60619453676574</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0.8048688288174066</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B275" t="n">
-        <v>15.11005748806165</v>
+        <v>14.90027704961622</v>
       </c>
       <c r="C275" t="n">
-        <v>145604947.9949723</v>
+        <v>127852283.8327944</v>
       </c>
       <c r="D275" t="n">
-        <v>5036630418.263512</v>
+        <v>4964300365.957165</v>
       </c>
       <c r="E275" t="n">
-        <v>1.606194536765749</v>
+        <v>1.537518235523269</v>
+      </c>
+      <c r="F275" t="n">
+        <v>-1.436080202431933</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>45063</v>
+        <v>45064</v>
       </c>
       <c r="B276" t="n">
-        <v>14.90027704961622</v>
+        <v>15.16243534872191</v>
       </c>
       <c r="C276" t="n">
-        <v>127852283.8327944</v>
+        <v>145268128.9435063</v>
       </c>
       <c r="D276" t="n">
-        <v>4964300365.957165</v>
+        <v>5053116258.921073</v>
       </c>
       <c r="E276" t="n">
-        <v>1.537518235523277</v>
+        <v>1.405162801002598</v>
+      </c>
+      <c r="F276" t="n">
+        <v>1.789091844098833</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>45064</v>
+        <v>45065</v>
       </c>
       <c r="B277" t="n">
-        <v>15.16243534872191</v>
+        <v>14.69846737293171</v>
       </c>
       <c r="C277" t="n">
-        <v>145268128.9435063</v>
+        <v>139973014.1567416</v>
       </c>
       <c r="D277" t="n">
-        <v>5053116258.921073</v>
+        <v>4910909771.880522</v>
       </c>
       <c r="E277" t="n">
-        <v>1.405162801002608</v>
+        <v>1.167304163634605</v>
+      </c>
+      <c r="F277" t="n">
+        <v>-2.81423343049928</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>45065</v>
+        <v>45066</v>
       </c>
       <c r="B278" t="n">
-        <v>14.69846737293171</v>
+        <v>14.68223086855675</v>
       </c>
       <c r="C278" t="n">
-        <v>139973014.1567416</v>
+        <v>104484168.8506655</v>
       </c>
       <c r="D278" t="n">
-        <v>4910909771.880522</v>
+        <v>4902751674.710029</v>
       </c>
       <c r="E278" t="n">
-        <v>1.167304163634617</v>
+        <v>1.115643265541518</v>
+      </c>
+      <c r="F278" t="n">
+        <v>-0.166121911202799</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>45066</v>
+        <v>45067</v>
       </c>
       <c r="B279" t="n">
-        <v>14.68223086855675</v>
+        <v>14.61696555308733</v>
       </c>
       <c r="C279" t="n">
-        <v>104484168.8506655</v>
+        <v>72698898.59926729</v>
       </c>
       <c r="D279" t="n">
-        <v>4902751674.710029</v>
+        <v>4882458336.727203</v>
       </c>
       <c r="E279" t="n">
-        <v>1.11564326554153</v>
+        <v>1.094152636561644</v>
+      </c>
+      <c r="F279" t="n">
+        <v>-0.4139173127512219</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>45067</v>
+        <v>45068</v>
       </c>
       <c r="B280" t="n">
-        <v>14.61696555308733</v>
+        <v>14.32234533883847</v>
       </c>
       <c r="C280" t="n">
-        <v>72698898.59926729</v>
+        <v>92694932.51330294</v>
       </c>
       <c r="D280" t="n">
-        <v>4882458336.727203</v>
+        <v>4789356564.494583</v>
       </c>
       <c r="E280" t="n">
-        <v>1.094152636561656</v>
+        <v>1.137996858150036</v>
+      </c>
+      <c r="F280" t="n">
+        <v>-1.906862605099624</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>45068</v>
+        <v>45069</v>
       </c>
       <c r="B281" t="n">
-        <v>14.32234533883847</v>
+        <v>14.67911858662631</v>
       </c>
       <c r="C281" t="n">
-        <v>92694932.51330294</v>
+        <v>139240466.2086219</v>
       </c>
       <c r="D281" t="n">
-        <v>4789356564.494583</v>
+        <v>4912464411.898167</v>
       </c>
       <c r="E281" t="n">
-        <v>1.137996858150048</v>
+        <v>1.147151898709229</v>
+      </c>
+      <c r="F281" t="n">
+        <v>2.570446483693267</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="B282" t="n">
-        <v>14.67911858662631</v>
+        <v>14.7143898500571</v>
       </c>
       <c r="C282" t="n">
-        <v>139240466.2086219</v>
+        <v>119317403.4019952</v>
       </c>
       <c r="D282" t="n">
-        <v>4912464411.898167</v>
+        <v>4921768178.250375</v>
       </c>
       <c r="E282" t="n">
-        <v>1.14715189870924</v>
+        <v>1.160900125315839</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0.1893910178702551</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>45070</v>
+        <v>45071</v>
       </c>
       <c r="B283" t="n">
-        <v>14.7143898500571</v>
+        <v>14.1508766156602</v>
       </c>
       <c r="C283" t="n">
-        <v>119317403.4019952</v>
+        <v>139794326.8017157</v>
       </c>
       <c r="D283" t="n">
-        <v>4921768178.250375</v>
+        <v>4738319887.297074</v>
       </c>
       <c r="E283" t="n">
-        <v>1.16090012531585</v>
+        <v>1.192218903938864</v>
+      </c>
+      <c r="F283" t="n">
+        <v>-3.72728426673915</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>45071</v>
+        <v>45072</v>
       </c>
       <c r="B284" t="n">
-        <v>14.1508766156602</v>
+        <v>14.08835498323685</v>
       </c>
       <c r="C284" t="n">
-        <v>139794326.8017157</v>
+        <v>148294326.2251094</v>
       </c>
       <c r="D284" t="n">
-        <v>4738319887.297074</v>
+        <v>4713170725.730185</v>
       </c>
       <c r="E284" t="n">
-        <v>1.192218903938876</v>
+        <v>1.186849376109791</v>
+      </c>
+      <c r="F284" t="n">
+        <v>-0.5307611593365014</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>45072</v>
+        <v>45073</v>
       </c>
       <c r="B285" t="n">
-        <v>14.08835498323685</v>
+        <v>14.38163823866638</v>
       </c>
       <c r="C285" t="n">
-        <v>148294326.2251094</v>
+        <v>139888824.9518988</v>
       </c>
       <c r="D285" t="n">
-        <v>4713170725.730185</v>
+        <v>4811485960.692467</v>
       </c>
       <c r="E285" t="n">
-        <v>1.186849376109802</v>
+        <v>1.182114766467392</v>
+      </c>
+      <c r="F285" t="n">
+        <v>2.085968039000985</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45073</v>
+        <v>45074</v>
       </c>
       <c r="B286" t="n">
-        <v>14.38163823866638</v>
+        <v>14.53447873937701</v>
       </c>
       <c r="C286" t="n">
-        <v>139888824.9518988</v>
+        <v>125298433.9547871</v>
       </c>
       <c r="D286" t="n">
-        <v>4811485960.692467</v>
+        <v>4864313898.133068</v>
       </c>
       <c r="E286" t="n">
-        <v>1.182114766467403</v>
+        <v>1.132921133631607</v>
+      </c>
+      <c r="F286" t="n">
+        <v>1.097954724843442</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>45074</v>
+        <v>45075</v>
       </c>
       <c r="B287" t="n">
-        <v>14.53447873937701</v>
+        <v>14.94047234258693</v>
       </c>
       <c r="C287" t="n">
-        <v>125298433.9547871</v>
+        <v>171471206.166873</v>
       </c>
       <c r="D287" t="n">
-        <v>4864313898.133068</v>
+        <v>5003360496.249675</v>
       </c>
       <c r="E287" t="n">
-        <v>1.132921133631618</v>
+        <v>1.07282234080373</v>
+      </c>
+      <c r="F287" t="n">
+        <v>2.85850381016679</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>45075</v>
+        <v>45076</v>
       </c>
       <c r="B288" t="n">
-        <v>14.94047234258693</v>
+        <v>14.48255216190501</v>
       </c>
       <c r="C288" t="n">
-        <v>171471206.166873</v>
+        <v>148421645.8216047</v>
       </c>
       <c r="D288" t="n">
-        <v>5003360496.249675</v>
+        <v>4980747217.570477</v>
       </c>
       <c r="E288" t="n">
-        <v>1.072822340803742</v>
+        <v>1.01875755098671</v>
+      </c>
+      <c r="F288" t="n">
+        <v>-0.451961810390189</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>45076</v>
+        <v>45077</v>
       </c>
       <c r="B289" t="n">
-        <v>14.48255216190501</v>
+        <v>14.44254461205226</v>
       </c>
       <c r="C289" t="n">
-        <v>148421645.8216047</v>
+        <v>146583743.1146586</v>
       </c>
       <c r="D289" t="n">
-        <v>4980747217.570477</v>
+        <v>4972482428.92516</v>
       </c>
       <c r="E289" t="n">
-        <v>1.018757550986723</v>
+        <v>0.9714942161919968</v>
+      </c>
+      <c r="F289" t="n">
+        <v>-0.1659347138951661</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="B290" t="n">
-        <v>14.44254461205226</v>
+        <v>14.13360032331379</v>
       </c>
       <c r="C290" t="n">
-        <v>146583743.1146586</v>
+        <v>137282509.6788968</v>
       </c>
       <c r="D290" t="n">
-        <v>4972482428.92516</v>
+        <v>4860250902.17328</v>
       </c>
       <c r="E290" t="n">
-        <v>0.9714942161920105</v>
+        <v>0.9569209712143414</v>
+      </c>
+      <c r="F290" t="n">
+        <v>-2.257052254202541</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>45078</v>
+        <v>45079</v>
       </c>
       <c r="B291" t="n">
-        <v>14.13360032331379</v>
+        <v>14.11631901802124</v>
       </c>
       <c r="C291" t="n">
-        <v>137282509.6788968</v>
+        <v>129330095.4087344</v>
       </c>
       <c r="D291" t="n">
-        <v>4860250902.17328</v>
+        <v>4859646748.623305</v>
       </c>
       <c r="E291" t="n">
-        <v>0.9569209712143553</v>
+        <v>0.9233577087444548</v>
+      </c>
+      <c r="F291" t="n">
+        <v>-0.01243050126701339</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>45079</v>
+        <v>45080</v>
       </c>
       <c r="B292" t="n">
-        <v>14.11631901802124</v>
+        <v>14.48806230824712</v>
       </c>
       <c r="C292" t="n">
-        <v>129330095.4087344</v>
+        <v>141007008.204808</v>
       </c>
       <c r="D292" t="n">
-        <v>4859646748.623305</v>
+        <v>4985513547.675787</v>
       </c>
       <c r="E292" t="n">
-        <v>0.9233577087444692</v>
+        <v>0.8396768028264666</v>
+      </c>
+      <c r="F292" t="n">
+        <v>2.590040090632906</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>45080</v>
+        <v>45081</v>
       </c>
       <c r="B293" t="n">
-        <v>14.48806230824712</v>
+        <v>14.58080505136822</v>
       </c>
       <c r="C293" t="n">
-        <v>141007008.204808</v>
+        <v>97177953.06830145</v>
       </c>
       <c r="D293" t="n">
-        <v>4985513547.675787</v>
+        <v>5019769310.236901</v>
       </c>
       <c r="E293" t="n">
-        <v>0.8396768028264824</v>
+        <v>0.7616733546154416</v>
+      </c>
+      <c r="F293" t="n">
+        <v>0.687105996875359</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>45081</v>
+        <v>45082</v>
       </c>
       <c r="B294" t="n">
-        <v>14.58080505136822</v>
+        <v>14.80706644613431</v>
       </c>
       <c r="C294" t="n">
-        <v>97177953.06830145</v>
+        <v>120604291.5678924</v>
       </c>
       <c r="D294" t="n">
-        <v>5019769310.236901</v>
+        <v>5094410093.588603</v>
       </c>
       <c r="E294" t="n">
-        <v>0.7616733546154589</v>
+        <v>0.6057969153837454</v>
+      </c>
+      <c r="F294" t="n">
+        <v>1.486936525140425</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="B295" t="n">
-        <v>14.80706644613431</v>
+        <v>13.906856331054</v>
       </c>
       <c r="C295" t="n">
-        <v>120604291.5678924</v>
+        <v>253788203.92589</v>
       </c>
       <c r="D295" t="n">
-        <v>5094410093.588603</v>
+        <v>4789687308.760806</v>
       </c>
       <c r="E295" t="n">
-        <v>0.6057969153837672</v>
+        <v>0.5293761050987008</v>
+      </c>
+      <c r="F295" t="n">
+        <v>-5.981512662502286</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="B296" t="n">
-        <v>13.906856331054</v>
+        <v>14.63289307853182</v>
       </c>
       <c r="C296" t="n">
-        <v>253788203.92589</v>
+        <v>192344598.9420312</v>
       </c>
       <c r="D296" t="n">
-        <v>4789687308.760806</v>
+        <v>5036545773.689383</v>
       </c>
       <c r="E296" t="n">
-        <v>0.5293761050987258</v>
+        <v>0.4168493134482998</v>
+      </c>
+      <c r="F296" t="n">
+        <v>5.153957847666768</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="B297" t="n">
-        <v>14.63289307853182</v>
+        <v>14.03054739764816</v>
       </c>
       <c r="C297" t="n">
-        <v>192344598.9420312</v>
+        <v>176316101.9250787</v>
       </c>
       <c r="D297" t="n">
-        <v>5036545773.689383</v>
+        <v>4839839257.907465</v>
       </c>
       <c r="E297" t="n">
-        <v>0.4168493134483316</v>
+        <v>0.4110756352356855</v>
+      </c>
+      <c r="F297" t="n">
+        <v>-3.905583799307466</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="B298" t="n">
-        <v>14.03054739764816</v>
+        <v>13.93330517379842</v>
       </c>
       <c r="C298" t="n">
-        <v>176316101.9250787</v>
+        <v>126133022.5139771</v>
       </c>
       <c r="D298" t="n">
-        <v>4839839257.907465</v>
+        <v>4805231005.835515</v>
       </c>
       <c r="E298" t="n">
-        <v>0.4110756352357177</v>
+        <v>0.4115905028718107</v>
+      </c>
+      <c r="F298" t="n">
+        <v>-0.7150702787371732</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>45086</v>
+        <v>45087</v>
       </c>
       <c r="B299" t="n">
-        <v>13.93330517379842</v>
+        <v>13.75151769019344</v>
       </c>
       <c r="C299" t="n">
-        <v>126133022.5139771</v>
+        <v>146213361.0022315</v>
       </c>
       <c r="D299" t="n">
-        <v>4805231005.835515</v>
+        <v>4736537347.931395</v>
       </c>
       <c r="E299" t="n">
-        <v>0.4115905028718429</v>
+        <v>0.39977704458235</v>
+      </c>
+      <c r="F299" t="n">
+        <v>-1.429559948745407</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>45087</v>
+        <v>45088</v>
       </c>
       <c r="B300" t="n">
-        <v>13.75151769019344</v>
+        <v>11.68805190040285</v>
       </c>
       <c r="C300" t="n">
-        <v>146213361.0022315</v>
+        <v>477280644.1294772</v>
       </c>
       <c r="D300" t="n">
-        <v>4736537347.931395</v>
+        <v>4028149323.874179</v>
       </c>
       <c r="E300" t="n">
-        <v>0.3997770445823832</v>
+        <v>0.650207124832233</v>
+      </c>
+      <c r="F300" t="n">
+        <v>-14.95582050813117</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>45088</v>
+        <v>45089</v>
       </c>
       <c r="B301" t="n">
-        <v>11.68805190040285</v>
+        <v>11.56475795875005</v>
       </c>
       <c r="C301" t="n">
-        <v>477280644.1294772</v>
+        <v>138824985.4857128</v>
       </c>
       <c r="D301" t="n">
-        <v>4028149323.874179</v>
+        <v>3983501179.654166</v>
       </c>
       <c r="E301" t="n">
-        <v>0.6502071248322533</v>
+        <v>0.8199073409049049</v>
+      </c>
+      <c r="F301" t="n">
+        <v>-1.108403403900404</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>45089</v>
+        <v>45090</v>
       </c>
       <c r="B302" t="n">
-        <v>11.56475795875005</v>
+        <v>11.53142761790411</v>
       </c>
       <c r="C302" t="n">
-        <v>138824985.4857128</v>
+        <v>147928006.9990063</v>
       </c>
       <c r="D302" t="n">
-        <v>3983501179.654166</v>
+        <v>3975783658.694386</v>
       </c>
       <c r="E302" t="n">
-        <v>0.8199073409049211</v>
+        <v>0.9555621703673258</v>
+      </c>
+      <c r="F302" t="n">
+        <v>-0.1937371325304804</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>45090</v>
+        <v>45091</v>
       </c>
       <c r="B303" t="n">
-        <v>11.53142761790411</v>
+        <v>11.76897345093806</v>
       </c>
       <c r="C303" t="n">
-        <v>147928006.9990063</v>
+        <v>158777168.1097298</v>
       </c>
       <c r="D303" t="n">
-        <v>3975783658.694386</v>
+        <v>4058166887.629985</v>
       </c>
       <c r="E303" t="n">
-        <v>0.9555621703673397</v>
+        <v>1.040404621346456</v>
+      </c>
+      <c r="F303" t="n">
+        <v>2.07212554826619</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="B304" t="n">
-        <v>11.76897345093806</v>
+        <v>11.36969492072535</v>
       </c>
       <c r="C304" t="n">
-        <v>158777168.1097298</v>
+        <v>159005357.9301111</v>
       </c>
       <c r="D304" t="n">
-        <v>4058166887.629985</v>
+        <v>3922746565.016417</v>
       </c>
       <c r="E304" t="n">
-        <v>1.040404621346469</v>
+        <v>1.134403482882963</v>
+      </c>
+      <c r="F304" t="n">
+        <v>-3.336982592469351</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="B305" t="n">
-        <v>11.36969492072535</v>
+        <v>11.39558939675088</v>
       </c>
       <c r="C305" t="n">
-        <v>159005357.9301111</v>
+        <v>160511824.8917708</v>
       </c>
       <c r="D305" t="n">
-        <v>3922746565.016417</v>
+        <v>3930683862.3477</v>
       </c>
       <c r="E305" t="n">
-        <v>1.134403482882975</v>
+        <v>1.213036274700432</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0.2023403041651717</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>45093</v>
+        <v>45094</v>
       </c>
       <c r="B306" t="n">
-        <v>11.39558939675088</v>
+        <v>11.53350667464086</v>
       </c>
       <c r="C306" t="n">
-        <v>160511824.8917708</v>
+        <v>109629537.8823917</v>
       </c>
       <c r="D306" t="n">
-        <v>3930683862.3477</v>
+        <v>3981060669.818995</v>
       </c>
       <c r="E306" t="n">
-        <v>1.213036274700443</v>
+        <v>1.258080697371244</v>
+      </c>
+      <c r="F306" t="n">
+        <v>1.281629590053224</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>45094</v>
+        <v>45095</v>
       </c>
       <c r="B307" t="n">
-        <v>11.53350667464086</v>
+        <v>11.60604393967437</v>
       </c>
       <c r="C307" t="n">
-        <v>109629537.8823917</v>
+        <v>101809060.1424505</v>
       </c>
       <c r="D307" t="n">
-        <v>3981060669.818995</v>
+        <v>4006845321.267726</v>
       </c>
       <c r="E307" t="n">
-        <v>1.258080697371254</v>
+        <v>1.302102178493791</v>
+      </c>
+      <c r="F307" t="n">
+        <v>0.647682956560014</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>45095</v>
+        <v>45096</v>
       </c>
       <c r="B308" t="n">
-        <v>11.60604393967437</v>
+        <v>11.33278156196017</v>
       </c>
       <c r="C308" t="n">
-        <v>101809060.1424505</v>
+        <v>113048209.5697164</v>
       </c>
       <c r="D308" t="n">
-        <v>4006845321.267726</v>
+        <v>3913846803.984199</v>
       </c>
       <c r="E308" t="n">
-        <v>1.302102178493802</v>
+        <v>1.35136086447908</v>
+      </c>
+      <c r="F308" t="n">
+        <v>-2.320990949910284</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="B309" t="n">
-        <v>11.33278156196017</v>
+        <v>11.43946051755732</v>
       </c>
       <c r="C309" t="n">
-        <v>113048209.5697164</v>
+        <v>86839040.28437851</v>
       </c>
       <c r="D309" t="n">
-        <v>3913846803.984199</v>
+        <v>3946509436.65985</v>
       </c>
       <c r="E309" t="n">
-        <v>1.35136086447909</v>
+        <v>1.386288713506558</v>
+      </c>
+      <c r="F309" t="n">
+        <v>0.8345403975035692</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="B310" t="n">
-        <v>11.43946051755732</v>
+        <v>12.09699156104377</v>
       </c>
       <c r="C310" t="n">
-        <v>86839040.28437851</v>
+        <v>116110032.0066726</v>
       </c>
       <c r="D310" t="n">
-        <v>3946509436.65985</v>
+        <v>4168895368.244301</v>
       </c>
       <c r="E310" t="n">
-        <v>1.386288713506568</v>
+        <v>1.395383586623514</v>
+      </c>
+      <c r="F310" t="n">
+        <v>5.635003163014574</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="B311" t="n">
-        <v>12.09699156104377</v>
+        <v>12.93100877393898</v>
       </c>
       <c r="C311" t="n">
-        <v>116110032.0066726</v>
+        <v>188004000.8520491</v>
       </c>
       <c r="D311" t="n">
-        <v>4168895368.244301</v>
+        <v>4466466546.610378</v>
       </c>
       <c r="E311" t="n">
-        <v>1.395383586623524</v>
+        <v>1.373755568027975</v>
+      </c>
+      <c r="F311" t="n">
+        <v>7.137890306213124</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="B312" t="n">
-        <v>12.93100877393898</v>
+        <v>12.67168609060814</v>
       </c>
       <c r="C312" t="n">
-        <v>188004000.8520491</v>
+        <v>167806035.9397728</v>
       </c>
       <c r="D312" t="n">
-        <v>4466466546.610378</v>
+        <v>4376407007.784794</v>
       </c>
       <c r="E312" t="n">
-        <v>1.373755568027984</v>
+        <v>1.350593060357563</v>
+      </c>
+      <c r="F312" t="n">
+        <v>-2.016348670380863</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="B313" t="n">
-        <v>12.67168609060814</v>
+        <v>13.268480737892</v>
       </c>
       <c r="C313" t="n">
-        <v>167806035.9397728</v>
+        <v>167314375.472219</v>
       </c>
       <c r="D313" t="n">
-        <v>4376407007.784794</v>
+        <v>4575680031.533834</v>
       </c>
       <c r="E313" t="n">
-        <v>1.350593060357573</v>
+        <v>1.33897848904444</v>
+      </c>
+      <c r="F313" t="n">
+        <v>4.553347606714175</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="B314" t="n">
-        <v>13.268480737892</v>
+        <v>13.01861244732085</v>
       </c>
       <c r="C314" t="n">
-        <v>167314375.472219</v>
+        <v>110912510.2172281</v>
       </c>
       <c r="D314" t="n">
-        <v>4575680031.533834</v>
+        <v>4490694476.467381</v>
       </c>
       <c r="E314" t="n">
-        <v>1.33897848904445</v>
+        <v>1.328200215561303</v>
+      </c>
+      <c r="F314" t="n">
+        <v>-1.857331685798946</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="B315" t="n">
-        <v>13.01861244732085</v>
+        <v>13.43195287459625</v>
       </c>
       <c r="C315" t="n">
-        <v>110912510.2172281</v>
+        <v>128147408.7718666</v>
       </c>
       <c r="D315" t="n">
-        <v>4490694476.467381</v>
+        <v>4636241023.528109</v>
       </c>
       <c r="E315" t="n">
-        <v>1.328200215561313</v>
+        <v>1.308911696233489</v>
+      </c>
+      <c r="F315" t="n">
+        <v>3.241069901847826</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="B316" t="n">
-        <v>13.43195287459625</v>
+        <v>13.1468027726568</v>
       </c>
       <c r="C316" t="n">
-        <v>128147408.7718666</v>
+        <v>155559405.5409995</v>
       </c>
       <c r="D316" t="n">
-        <v>4636241023.528109</v>
+        <v>4527092186.007157</v>
       </c>
       <c r="E316" t="n">
-        <v>1.308911696233499</v>
+        <v>1.281221157346423</v>
+      </c>
+      <c r="F316" t="n">
+        <v>-2.354252873546481</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="B317" t="n">
-        <v>13.1468027726568</v>
+        <v>13.20537884637148</v>
       </c>
       <c r="C317" t="n">
-        <v>155559405.5409995</v>
+        <v>109824856.6656646</v>
       </c>
       <c r="D317" t="n">
-        <v>4527092186.007157</v>
+        <v>4553342809.56627</v>
       </c>
       <c r="E317" t="n">
-        <v>1.281221157346433</v>
+        <v>1.232000674180989</v>
+      </c>
+      <c r="F317" t="n">
+        <v>0.5798561743507458</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="B318" t="n">
-        <v>13.20537884637148</v>
+        <v>12.34127035956007</v>
       </c>
       <c r="C318" t="n">
-        <v>109824856.6656646</v>
+        <v>142260061.7834539</v>
       </c>
       <c r="D318" t="n">
-        <v>4553342809.56627</v>
+        <v>4261965982.722472</v>
       </c>
       <c r="E318" t="n">
-        <v>1.232000674180999</v>
+        <v>1.205503692404841</v>
+      </c>
+      <c r="F318" t="n">
+        <v>-6.399184929182899</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="B319" t="n">
-        <v>12.34127035956007</v>
+        <v>12.68388429688858</v>
       </c>
       <c r="C319" t="n">
-        <v>142260061.7834539</v>
+        <v>129033008.8574998</v>
       </c>
       <c r="D319" t="n">
-        <v>4261965982.722472</v>
+        <v>4381790414.510922</v>
       </c>
       <c r="E319" t="n">
-        <v>1.205503692404851</v>
+        <v>1.172159908322709</v>
+      </c>
+      <c r="F319" t="n">
+        <v>2.811482594516357</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>45107</v>
+        <v>45108</v>
       </c>
       <c r="B320" t="n">
-        <v>12.68388429688858</v>
+        <v>13.01897892973709</v>
       </c>
       <c r="C320" t="n">
-        <v>129033008.8574998</v>
+        <v>240974179.7353323</v>
       </c>
       <c r="D320" t="n">
-        <v>4381790414.510922</v>
+        <v>4493191261.159981</v>
       </c>
       <c r="E320" t="n">
-        <v>1.17215990832272</v>
+        <v>1.148488361664711</v>
+      </c>
+      <c r="F320" t="n">
+        <v>2.542359084088974</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>45108</v>
+        <v>45109</v>
       </c>
       <c r="B321" t="n">
-        <v>13.01897892973709</v>
+        <v>12.99142364950765</v>
       </c>
       <c r="C321" t="n">
-        <v>240974179.7353323</v>
+        <v>111042039.4082555</v>
       </c>
       <c r="D321" t="n">
-        <v>4493191261.159981</v>
+        <v>4482673066.742268</v>
       </c>
       <c r="E321" t="n">
-        <v>1.148488361664723</v>
+        <v>1.123578821645417</v>
+      </c>
+      <c r="F321" t="n">
+        <v>-0.2340918471162023</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>45109</v>
+        <v>45110</v>
       </c>
       <c r="B322" t="n">
-        <v>12.99142364950765</v>
+        <v>13.08817974407603</v>
       </c>
       <c r="C322" t="n">
-        <v>111042039.4082555</v>
+        <v>135290784.5574283</v>
       </c>
       <c r="D322" t="n">
-        <v>4482673066.742268</v>
+        <v>4526665222.804141</v>
       </c>
       <c r="E322" t="n">
-        <v>1.123578821645429</v>
+        <v>1.079499943786618</v>
+      </c>
+      <c r="F322" t="n">
+        <v>0.9813822111690129</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45110</v>
+        <v>45111</v>
       </c>
       <c r="B323" t="n">
-        <v>13.08817974407603</v>
+        <v>13.21290969899755</v>
       </c>
       <c r="C323" t="n">
-        <v>135290784.5574283</v>
+        <v>166728066.3700742</v>
       </c>
       <c r="D323" t="n">
-        <v>4526665222.804141</v>
+        <v>4565728787.994427</v>
       </c>
       <c r="E323" t="n">
-        <v>1.07949994378663</v>
+        <v>1.027531090083335</v>
+      </c>
+      <c r="F323" t="n">
+        <v>0.862965632923185</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="B324" t="n">
-        <v>13.21290969899755</v>
+        <v>13.03296114823035</v>
       </c>
       <c r="C324" t="n">
-        <v>166728066.3700742</v>
+        <v>138839120.2072443</v>
       </c>
       <c r="D324" t="n">
-        <v>4565728787.994427</v>
+        <v>4517972387.972847</v>
       </c>
       <c r="E324" t="n">
-        <v>1.027531090083348</v>
+        <v>0.9510849851012774</v>
+      </c>
+      <c r="F324" t="n">
+        <v>-1.045975401498989</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B325" t="n">
-        <v>13.03296114823035</v>
+        <v>12.67238792875754</v>
       </c>
       <c r="C325" t="n">
-        <v>138839120.2072443</v>
+        <v>133677037.0170249</v>
       </c>
       <c r="D325" t="n">
-        <v>4517972387.972847</v>
+        <v>4385200096.429283</v>
       </c>
       <c r="E325" t="n">
-        <v>0.9510849851012912</v>
+        <v>0.9212565792887187</v>
+      </c>
+      <c r="F325" t="n">
+        <v>-2.93875836640819</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45113</v>
+        <v>45114</v>
       </c>
       <c r="B326" t="n">
-        <v>12.67238792875754</v>
+        <v>12.40830198864817</v>
       </c>
       <c r="C326" t="n">
-        <v>133677037.0170249</v>
+        <v>146956999.1298949</v>
       </c>
       <c r="D326" t="n">
-        <v>4385200096.429283</v>
+        <v>4311633763.172724</v>
       </c>
       <c r="E326" t="n">
-        <v>0.9212565792887332</v>
+        <v>0.8389214463396294</v>
+      </c>
+      <c r="F326" t="n">
+        <v>-1.677604935666721</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="B327" t="n">
-        <v>12.40830198864817</v>
+        <v>12.73562972674504</v>
       </c>
       <c r="C327" t="n">
-        <v>146956999.1298949</v>
+        <v>110574601.6413006</v>
       </c>
       <c r="D327" t="n">
-        <v>4311633763.172724</v>
+        <v>4402888148.881672</v>
       </c>
       <c r="E327" t="n">
-        <v>0.8389214463396452</v>
+        <v>0.7914994997072219</v>
+      </c>
+      <c r="F327" t="n">
+        <v>2.116468854298015</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45115</v>
+        <v>45116</v>
       </c>
       <c r="B328" t="n">
-        <v>12.73562972674504</v>
+        <v>13.65483159895106</v>
       </c>
       <c r="C328" t="n">
-        <v>110574601.6413006</v>
+        <v>249719905.1327584</v>
       </c>
       <c r="D328" t="n">
-        <v>4402888148.881672</v>
+        <v>4713980708.6019</v>
       </c>
       <c r="E328" t="n">
-        <v>0.7914994997072387</v>
+        <v>0.7755305742014401</v>
+      </c>
+      <c r="F328" t="n">
+        <v>7.065647574972922</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45116</v>
+        <v>45117</v>
       </c>
       <c r="B329" t="n">
-        <v>13.65483159895106</v>
+        <v>13.5964045079872</v>
       </c>
       <c r="C329" t="n">
-        <v>249719905.1327584</v>
+        <v>188894805.7234408</v>
       </c>
       <c r="D329" t="n">
-        <v>4713980708.6019</v>
+        <v>4699662575.833299</v>
       </c>
       <c r="E329" t="n">
-        <v>0.7755305742014572</v>
+        <v>0.7672787337042737</v>
+      </c>
+      <c r="F329" t="n">
+        <v>-0.3037376190885621</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45117</v>
+        <v>45118</v>
       </c>
       <c r="B330" t="n">
-        <v>13.5964045079872</v>
+        <v>13.38281300282614</v>
       </c>
       <c r="C330" t="n">
-        <v>188894805.7234408</v>
+        <v>179283922.7533967</v>
       </c>
       <c r="D330" t="n">
-        <v>4699662575.833299</v>
+        <v>4624874661.049588</v>
       </c>
       <c r="E330" t="n">
-        <v>0.767278733704291</v>
+        <v>0.7692494621506982</v>
+      </c>
+      <c r="F330" t="n">
+        <v>-1.591346475985034</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="B331" t="n">
-        <v>13.38281300282614</v>
+        <v>13.25763372556838</v>
       </c>
       <c r="C331" t="n">
-        <v>179283922.7533967</v>
+        <v>154462412.0419917</v>
       </c>
       <c r="D331" t="n">
-        <v>4624874661.049588</v>
+        <v>4585305841.354374</v>
       </c>
       <c r="E331" t="n">
-        <v>0.7692494621507154</v>
+        <v>0.7574120647357128</v>
+      </c>
+      <c r="F331" t="n">
+        <v>-0.8555652335502262</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45119</v>
+        <v>45120</v>
       </c>
       <c r="B332" t="n">
-        <v>13.25763372556838</v>
+        <v>13.03788066846177</v>
       </c>
       <c r="C332" t="n">
-        <v>154462412.0419917</v>
+        <v>130174595.9139307</v>
       </c>
       <c r="D332" t="n">
-        <v>4585305841.354374</v>
+        <v>4511378569.151524</v>
       </c>
       <c r="E332" t="n">
-        <v>0.7574120647357302</v>
+        <v>0.7341013388310949</v>
+      </c>
+      <c r="F332" t="n">
+        <v>-1.612264803278951</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="B333" t="n">
-        <v>13.03788066846177</v>
+        <v>14.07346240737356</v>
       </c>
       <c r="C333" t="n">
-        <v>130174595.9139307</v>
+        <v>297281558.6307657</v>
       </c>
       <c r="D333" t="n">
-        <v>4511378569.151524</v>
+        <v>4859088015.830401</v>
       </c>
       <c r="E333" t="n">
-        <v>0.7341013388311128</v>
+        <v>0.7594688234090766</v>
+      </c>
+      <c r="F333" t="n">
+        <v>7.70738791589094</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45121</v>
+        <v>45122</v>
       </c>
       <c r="B334" t="n">
-        <v>14.07346240737356</v>
+        <v>14.62120554488527</v>
       </c>
       <c r="C334" t="n">
-        <v>297281558.6307657</v>
+        <v>586133398.9271395</v>
       </c>
       <c r="D334" t="n">
-        <v>4859088015.830401</v>
+        <v>5046915685.957171</v>
       </c>
       <c r="E334" t="n">
-        <v>0.7594688234090939</v>
+        <v>0.7912851520067832</v>
+      </c>
+      <c r="F334" t="n">
+        <v>3.865492238766755</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45122</v>
+        <v>45123</v>
       </c>
       <c r="B335" t="n">
-        <v>14.62120554488527</v>
+        <v>14.82765565675365</v>
       </c>
       <c r="C335" t="n">
-        <v>586133398.9271395</v>
+        <v>199732268.6640704</v>
       </c>
       <c r="D335" t="n">
-        <v>5046915685.957171</v>
+        <v>5127762032.891809</v>
       </c>
       <c r="E335" t="n">
-        <v>0.7912851520067998</v>
+        <v>0.8242223809530159</v>
+      </c>
+      <c r="F335" t="n">
+        <v>1.601896127561409</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45123</v>
+        <v>45124</v>
       </c>
       <c r="B336" t="n">
-        <v>14.82765565675365</v>
+        <v>14.29698006980046</v>
       </c>
       <c r="C336" t="n">
-        <v>199732268.6640704</v>
+        <v>149147914.9971267</v>
       </c>
       <c r="D336" t="n">
-        <v>5127762032.891809</v>
+        <v>4929188993.228937</v>
       </c>
       <c r="E336" t="n">
-        <v>0.8242223809530319</v>
+        <v>0.8155248268093236</v>
+      </c>
+      <c r="F336" t="n">
+        <v>-3.872508872079738</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45124</v>
+        <v>45125</v>
       </c>
       <c r="B337" t="n">
-        <v>14.29698006980046</v>
+        <v>14.43024474523526</v>
       </c>
       <c r="C337" t="n">
-        <v>149147914.9971267</v>
+        <v>166214769.2144816</v>
       </c>
       <c r="D337" t="n">
-        <v>4929188993.228937</v>
+        <v>4985308735.835179</v>
       </c>
       <c r="E337" t="n">
-        <v>0.8155248268093399</v>
+        <v>0.8077184374075139</v>
+      </c>
+      <c r="F337" t="n">
+        <v>1.138518784394993</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="B338" t="n">
-        <v>14.43024474523526</v>
+        <v>13.78550036555803</v>
       </c>
       <c r="C338" t="n">
-        <v>166214769.2144816</v>
+        <v>138193180.8586196</v>
       </c>
       <c r="D338" t="n">
-        <v>4985308735.835179</v>
+        <v>4760780741.343175</v>
       </c>
       <c r="E338" t="n">
-        <v>0.8077184374075304</v>
+        <v>0.7408681304920987</v>
+      </c>
+      <c r="F338" t="n">
+        <v>-4.503793172889415</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="B339" t="n">
-        <v>13.78550036555803</v>
+        <v>14.00398890179439</v>
       </c>
       <c r="C339" t="n">
-        <v>138193180.8586196</v>
+        <v>131926947.6748191</v>
       </c>
       <c r="D339" t="n">
-        <v>4760780741.343175</v>
+        <v>4845254741.095836</v>
       </c>
       <c r="E339" t="n">
-        <v>0.7408681304921164</v>
+        <v>0.6742466812434741</v>
+      </c>
+      <c r="F339" t="n">
+        <v>1.774372825429205</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="B340" t="n">
-        <v>14.00398890179439</v>
+        <v>13.84649347260942</v>
       </c>
       <c r="C340" t="n">
-        <v>131926947.6748191</v>
+        <v>160755200.8988627</v>
       </c>
       <c r="D340" t="n">
-        <v>4845254741.095836</v>
+        <v>4794387335.358755</v>
       </c>
       <c r="E340" t="n">
-        <v>0.6742466812434937</v>
+        <v>0.6417042361920191</v>
+      </c>
+      <c r="F340" t="n">
+        <v>-1.04983965663642</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45128</v>
+        <v>45129</v>
       </c>
       <c r="B341" t="n">
-        <v>13.84649347260942</v>
+        <v>13.98657852561557</v>
       </c>
       <c r="C341" t="n">
-        <v>160755200.8988627</v>
+        <v>111976935.8536934</v>
       </c>
       <c r="D341" t="n">
-        <v>4794387335.358755</v>
+        <v>4836183567.084007</v>
       </c>
       <c r="E341" t="n">
-        <v>0.6417042361920396</v>
+        <v>0.6465284494651753</v>
+      </c>
+      <c r="F341" t="n">
+        <v>0.8717741976540738</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45129</v>
+        <v>45130</v>
       </c>
       <c r="B342" t="n">
-        <v>13.98657852561557</v>
+        <v>13.46028547938817</v>
       </c>
       <c r="C342" t="n">
-        <v>111976935.8536934</v>
+        <v>100960479.5952513</v>
       </c>
       <c r="D342" t="n">
-        <v>4836183567.084007</v>
+        <v>4656534268.842639</v>
       </c>
       <c r="E342" t="n">
-        <v>0.6465284494651958</v>
+        <v>0.6321447712239461</v>
+      </c>
+      <c r="F342" t="n">
+        <v>-3.714691465892561</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45130</v>
+        <v>45131</v>
       </c>
       <c r="B343" t="n">
-        <v>13.46028547938817</v>
+        <v>13.55455967103337</v>
       </c>
       <c r="C343" t="n">
-        <v>100960479.5952513</v>
+        <v>100432782.0965239</v>
       </c>
       <c r="D343" t="n">
-        <v>4656534268.842639</v>
+        <v>4690921563.367759</v>
       </c>
       <c r="E343" t="n">
-        <v>0.6321447712239671</v>
+        <v>0.6319800896294162</v>
+      </c>
+      <c r="F343" t="n">
+        <v>0.7384739924541917</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45131</v>
+        <v>45132</v>
       </c>
       <c r="B344" t="n">
-        <v>13.55455967103337</v>
+        <v>13.11201676104713</v>
       </c>
       <c r="C344" t="n">
-        <v>100432782.0965239</v>
+        <v>153306136.6741065</v>
       </c>
       <c r="D344" t="n">
-        <v>4690921563.367759</v>
+        <v>4531494064.465242</v>
       </c>
       <c r="E344" t="n">
-        <v>0.6319800896294372</v>
+        <v>0.6301269534615932</v>
+      </c>
+      <c r="F344" t="n">
+        <v>-3.398639195920783</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="B345" t="n">
-        <v>13.11201676104713</v>
+        <v>13.34236560600742</v>
       </c>
       <c r="C345" t="n">
-        <v>153306136.6741065</v>
+        <v>149472137.8699346</v>
       </c>
       <c r="D345" t="n">
-        <v>4531494064.465242</v>
+        <v>4614462772.705778</v>
       </c>
       <c r="E345" t="n">
-        <v>0.6301269534616143</v>
+        <v>0.6303293997067797</v>
+      </c>
+      <c r="F345" t="n">
+        <v>1.830934942432205</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="B346" t="n">
-        <v>13.34236560600742</v>
+        <v>13.26377857173991</v>
       </c>
       <c r="C346" t="n">
-        <v>149472137.8699346</v>
+        <v>137555520.3364679</v>
       </c>
       <c r="D346" t="n">
-        <v>4614462772.705778</v>
+        <v>4586385707.781537</v>
       </c>
       <c r="E346" t="n">
-        <v>0.6303293997068007</v>
+        <v>0.6288967288459427</v>
+      </c>
+      <c r="F346" t="n">
+        <v>-0.6084579355654318</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="B347" t="n">
-        <v>13.26377857173991</v>
+        <v>13.1389646127358</v>
       </c>
       <c r="C347" t="n">
-        <v>137555520.3364679</v>
+        <v>100352726.4354466</v>
       </c>
       <c r="D347" t="n">
-        <v>4586385707.781537</v>
+        <v>4546341797.535078</v>
       </c>
       <c r="E347" t="n">
-        <v>0.6288967288459638</v>
+        <v>0.6298340430271994</v>
+      </c>
+      <c r="F347" t="n">
+        <v>-0.8731038512203249</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45135</v>
+        <v>45136</v>
       </c>
       <c r="B348" t="n">
-        <v>13.1389646127358</v>
+        <v>13.23628929088492</v>
       </c>
       <c r="C348" t="n">
-        <v>100352726.4354466</v>
+        <v>84052763.87497517</v>
       </c>
       <c r="D348" t="n">
-        <v>4546341797.535078</v>
+        <v>4580343566.10842</v>
       </c>
       <c r="E348" t="n">
-        <v>0.6298340430272203</v>
+        <v>0.5968867122247831</v>
+      </c>
+      <c r="F348" t="n">
+        <v>0.7478929233120324</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45136</v>
+        <v>45137</v>
       </c>
       <c r="B349" t="n">
-        <v>13.23628929088492</v>
+        <v>13.24747943925071</v>
       </c>
       <c r="C349" t="n">
-        <v>84052763.87497517</v>
+        <v>57472999.93853205</v>
       </c>
       <c r="D349" t="n">
-        <v>4580343566.10842</v>
+        <v>4585437220.454196</v>
       </c>
       <c r="E349" t="n">
-        <v>0.5968867122248053</v>
+        <v>0.580305100198146</v>
+      </c>
+      <c r="F349" t="n">
+        <v>0.1112068182715698</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45137</v>
+        <v>45138</v>
       </c>
       <c r="B350" t="n">
-        <v>13.24747943925071</v>
+        <v>13.13235626644738</v>
       </c>
       <c r="C350" t="n">
-        <v>57472999.93853205</v>
+        <v>101571262.0724923</v>
       </c>
       <c r="D350" t="n">
-        <v>4585437220.454196</v>
+        <v>4545954890.252018</v>
       </c>
       <c r="E350" t="n">
-        <v>0.5803051001981687</v>
+        <v>0.5775803249763077</v>
+      </c>
+      <c r="F350" t="n">
+        <v>-0.8610374170223034</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45138</v>
+        <v>45139</v>
       </c>
       <c r="B351" t="n">
-        <v>13.13235626644738</v>
+        <v>12.82923722058742</v>
       </c>
       <c r="C351" t="n">
-        <v>101571262.0724923</v>
+        <v>118490824.1612948</v>
       </c>
       <c r="D351" t="n">
-        <v>4545954890.252018</v>
+        <v>4441640924.830935</v>
       </c>
       <c r="E351" t="n">
-        <v>0.5775803249763306</v>
+        <v>0.5830544341619536</v>
+      </c>
+      <c r="F351" t="n">
+        <v>-2.29465465318992</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="B352" t="n">
-        <v>12.82923722058742</v>
+        <v>12.84248547603609</v>
       </c>
       <c r="C352" t="n">
-        <v>118490824.1612948</v>
+        <v>135854211.1389249</v>
       </c>
       <c r="D352" t="n">
-        <v>4441640924.830935</v>
+        <v>4440065446.186725</v>
       </c>
       <c r="E352" t="n">
-        <v>0.5830544341619763</v>
+        <v>0.5903643417234433</v>
+      </c>
+      <c r="F352" t="n">
+        <v>-0.0354706440901853</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B353" t="n">
-        <v>12.84248547603609</v>
+        <v>12.52464988447263</v>
       </c>
       <c r="C353" t="n">
-        <v>135854211.1389249</v>
+        <v>124962663.9273025</v>
       </c>
       <c r="D353" t="n">
-        <v>4440065446.186725</v>
+        <v>4337505960.41395</v>
       </c>
       <c r="E353" t="n">
-        <v>0.5903643417234657</v>
+        <v>0.6135164674328429</v>
+      </c>
+      <c r="F353" t="n">
+        <v>-2.309864280510909</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="B354" t="n">
-        <v>12.52464988447263</v>
+        <v>12.44348648108768</v>
       </c>
       <c r="C354" t="n">
-        <v>124962663.9273025</v>
+        <v>125244542.2468092</v>
       </c>
       <c r="D354" t="n">
-        <v>4337505960.41395</v>
+        <v>4312737532.887226</v>
       </c>
       <c r="E354" t="n">
-        <v>0.6135164674328645</v>
+        <v>0.6361730672120752</v>
+      </c>
+      <c r="F354" t="n">
+        <v>-0.5710292447496768</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45142</v>
+        <v>45143</v>
       </c>
       <c r="B355" t="n">
-        <v>12.44348648108768</v>
+        <v>12.39841524888395</v>
       </c>
       <c r="C355" t="n">
-        <v>125244542.2468092</v>
+        <v>104923214.6692953</v>
       </c>
       <c r="D355" t="n">
-        <v>4312737532.887226</v>
+        <v>4290258247.567955</v>
       </c>
       <c r="E355" t="n">
-        <v>0.6361730672120961</v>
+        <v>0.6491810289624529</v>
+      </c>
+      <c r="F355" t="n">
+        <v>-0.5212300806124559</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45143</v>
+        <v>45144</v>
       </c>
       <c r="B356" t="n">
-        <v>12.39841524888395</v>
+        <v>12.43339682691302</v>
       </c>
       <c r="C356" t="n">
-        <v>104923214.6692953</v>
+        <v>84025895.13610195</v>
       </c>
       <c r="D356" t="n">
-        <v>4290258247.567955</v>
+        <v>4302444532.257491</v>
       </c>
       <c r="E356" t="n">
-        <v>0.6491810289624732</v>
+        <v>0.6478529630549674</v>
+      </c>
+      <c r="F356" t="n">
+        <v>0.2840454813284099</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45144</v>
+        <v>45145</v>
       </c>
       <c r="B357" t="n">
-        <v>12.43339682691302</v>
+        <v>12.56093085411536</v>
       </c>
       <c r="C357" t="n">
-        <v>84025895.13610195</v>
+        <v>98533348.12946172</v>
       </c>
       <c r="D357" t="n">
-        <v>4302444532.257491</v>
+        <v>4349096747.927648</v>
       </c>
       <c r="E357" t="n">
-        <v>0.6478529630549879</v>
+        <v>0.6549311995250613</v>
+      </c>
+      <c r="F357" t="n">
+        <v>1.084318817369567</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="B358" t="n">
-        <v>12.56093085411536</v>
+        <v>12.44547049394392</v>
       </c>
       <c r="C358" t="n">
-        <v>98533348.12946172</v>
+        <v>124573482.4585493</v>
       </c>
       <c r="D358" t="n">
-        <v>4349096747.927648</v>
+        <v>4309369283.773358</v>
       </c>
       <c r="E358" t="n">
-        <v>0.6549311995250814</v>
+        <v>0.6762609648758652</v>
+      </c>
+      <c r="F358" t="n">
+        <v>-0.9134647136378238</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="B359" t="n">
-        <v>12.44547049394392</v>
+        <v>12.69196038136247</v>
       </c>
       <c r="C359" t="n">
-        <v>124573482.4585493</v>
+        <v>135268637.199366</v>
       </c>
       <c r="D359" t="n">
-        <v>4309369283.773358</v>
+        <v>4394913690.025425</v>
       </c>
       <c r="E359" t="n">
-        <v>0.6762609648758847</v>
+        <v>0.6859308737744464</v>
+      </c>
+      <c r="F359" t="n">
+        <v>1.985079500477682</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="B360" t="n">
-        <v>12.69196038136247</v>
+        <v>12.63378573661651</v>
       </c>
       <c r="C360" t="n">
-        <v>135268637.199366</v>
+        <v>110323185.6337956</v>
       </c>
       <c r="D360" t="n">
-        <v>4394913690.025425</v>
+        <v>4345030823.997885</v>
       </c>
       <c r="E360" t="n">
-        <v>0.6859308737744657</v>
+        <v>0.6978579469422824</v>
+      </c>
+      <c r="F360" t="n">
+        <v>-1.135013553070519</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="B361" t="n">
-        <v>12.63378573661651</v>
+        <v>12.47267617447366</v>
       </c>
       <c r="C361" t="n">
-        <v>110323185.6337956</v>
+        <v>105976426.1946264</v>
       </c>
       <c r="D361" t="n">
-        <v>4345030823.997885</v>
+        <v>4287909784.564771</v>
       </c>
       <c r="E361" t="n">
-        <v>0.6978579469423014</v>
+        <v>0.7146097267031308</v>
+      </c>
+      <c r="F361" t="n">
+        <v>-1.314629095785258</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45149</v>
+        <v>45150</v>
       </c>
       <c r="B362" t="n">
-        <v>12.47267617447366</v>
+        <v>12.44017280095199</v>
       </c>
       <c r="C362" t="n">
-        <v>105976426.1946264</v>
+        <v>88761400.35620981</v>
       </c>
       <c r="D362" t="n">
-        <v>4287909784.564771</v>
+        <v>4276791638.606062</v>
       </c>
       <c r="E362" t="n">
-        <v>0.7146097267031493</v>
+        <v>0.7300228036640851</v>
+      </c>
+      <c r="F362" t="n">
+        <v>-0.2592905755324115</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45150</v>
+        <v>45151</v>
       </c>
       <c r="B363" t="n">
-        <v>12.44017280095199</v>
+        <v>12.3853064359102</v>
       </c>
       <c r="C363" t="n">
-        <v>88761400.35620981</v>
+        <v>72673457.57148623</v>
       </c>
       <c r="D363" t="n">
-        <v>4276791638.606062</v>
+        <v>4258059596.105909</v>
       </c>
       <c r="E363" t="n">
-        <v>0.7300228036641032</v>
+        <v>0.7309558667710025</v>
+      </c>
+      <c r="F363" t="n">
+        <v>-0.4379928713632131</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45151</v>
+        <v>45152</v>
       </c>
       <c r="B364" t="n">
-        <v>12.3853064359102</v>
+        <v>12.25906602850391</v>
       </c>
       <c r="C364" t="n">
-        <v>72673457.57148623</v>
+        <v>91976829.73224923</v>
       </c>
       <c r="D364" t="n">
-        <v>4258059596.105909</v>
+        <v>4213157574.619293</v>
       </c>
       <c r="E364" t="n">
-        <v>0.7309558667710206</v>
+        <v>0.7006241777683663</v>
+      </c>
+      <c r="F364" t="n">
+        <v>-1.054518389730397</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45152</v>
+        <v>45153</v>
       </c>
       <c r="B365" t="n">
-        <v>12.25906602850391</v>
+        <v>12.35248223246607</v>
       </c>
       <c r="C365" t="n">
-        <v>91976829.73224923</v>
+        <v>106021861.5493814</v>
       </c>
       <c r="D365" t="n">
-        <v>4213157574.619293</v>
+        <v>4247381664.186667</v>
       </c>
       <c r="E365" t="n">
-        <v>0.7006241777683851</v>
+        <v>0.63719543630119</v>
+      </c>
+      <c r="F365" t="n">
+        <v>0.8123144924259584</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45153</v>
+        <v>45154</v>
       </c>
       <c r="B366" t="n">
-        <v>12.35248223246607</v>
+        <v>11.80363667190117</v>
       </c>
       <c r="C366" t="n">
-        <v>106021861.5493814</v>
+        <v>124519709.1473733</v>
       </c>
       <c r="D366" t="n">
-        <v>4247381664.186667</v>
+        <v>4060500083.27353</v>
       </c>
       <c r="E366" t="n">
-        <v>0.6371954363012109</v>
+        <v>0.6317546474471182</v>
+      </c>
+      <c r="F366" t="n">
+        <v>-4.399924369615693</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45153.45489583333</v>
+        <v>45154.50032407408</v>
       </c>
       <c r="B367" t="n">
-        <v>12.3047500408476</v>
+        <v>11.62519165395317</v>
       </c>
       <c r="C367" t="n">
-        <v>93289843.97577149</v>
+        <v>135294458.5052883</v>
       </c>
       <c r="D367" t="n">
-        <v>4231861150.649434</v>
+        <v>4000505652.251411</v>
       </c>
       <c r="E367" t="n">
-        <v>0.6059898941242141</v>
+        <v>0.6153322242701347</v>
+      </c>
+      <c r="F367" t="n">
+        <v>-1.477513355294691</v>
       </c>
     </row>
   </sheetData>
